--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -31,7 +31,7 @@
     <t>Variables (var)</t>
   </si>
   <si>
-    <t>inprogress</t>
+    <t/>
   </si>
   <si>
     <t>Variables (let)</t>
@@ -878,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -887,6 +887,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1200,9 +1203,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="42.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="45.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="42.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="45.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
@@ -1228,7 +1231,7 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1237,7 +1240,7 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1246,7 +1249,7 @@
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -31,7 +31,7 @@
     <t>Variables (var)</t>
   </si>
   <si>
-    <t/>
+    <t>done</t>
   </si>
   <si>
     <t>Variables (let)</t>
@@ -878,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -887,9 +887,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1203,9 +1200,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="42.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="45.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="42.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="45.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
@@ -1231,7 +1228,7 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1240,7 +1237,7 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1249,7 +1246,7 @@
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="266">
   <si>
     <t>Category</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Data Types (Non-Primitive)</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Type Conversion</t>
@@ -878,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -887,6 +890,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1200,9 +1206,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="42.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="45.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="42.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="45.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
@@ -1255,102 +1261,106 @@
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1358,132 +1368,132 @@
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1491,104 +1501,104 @@
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1596,174 +1606,174 @@
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C64" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C65" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C66" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C71" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C72" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C74" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C75" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C76" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C77" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1771,174 +1781,174 @@
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C80" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C81" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C82" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C83" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C84" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C85" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C86" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C87" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C88" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C89" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C90" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C91" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C92" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C93" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C94" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C95" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C96" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C97" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C98" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C99" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C100" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C101" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C102" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C103" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -1946,146 +1956,146 @@
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C105" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C106" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C107" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C108" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C109" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C110" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C111" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C112" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C113" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C114" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C115" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C116" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C117" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C118" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C119" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C120" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C121" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C122" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C123" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C124" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2093,76 +2103,76 @@
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C126" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C127" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C128" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C129" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C130" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C131" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C132" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C133" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C134" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C135" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2170,111 +2180,111 @@
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C137" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C138" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C139" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C140" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C141" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C142" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C143" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="3"/>
       <c r="B144" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C144" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C145" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="3"/>
       <c r="B146" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C146" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="3"/>
       <c r="B147" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C147" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="3"/>
       <c r="B148" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C148" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="3"/>
       <c r="B149" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C149" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="3"/>
       <c r="B150" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C150" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C151" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2282,69 +2292,69 @@
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="3"/>
       <c r="B153" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C153" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="3"/>
       <c r="B154" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="3"/>
       <c r="B155" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C155" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C156" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C157" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="3"/>
       <c r="B158" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C158" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="3"/>
       <c r="B159" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C159" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="3"/>
       <c r="B160" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C160" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C161" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -2352,153 +2362,153 @@
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C163" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="3"/>
       <c r="B164" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="3"/>
       <c r="B165" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C165" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C166" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="3"/>
       <c r="B167" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C167" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C168" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="3"/>
       <c r="B169" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C169" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="3"/>
       <c r="B170" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C170" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C171" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="3"/>
       <c r="B172" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C172" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="3"/>
       <c r="B173" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C173" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C174" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C175" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="3"/>
       <c r="B176" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C176" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C177" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C178" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C179" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C180" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C181" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="3"/>
       <c r="B182" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C182" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C183" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -2506,111 +2516,111 @@
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="3"/>
       <c r="B185" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C185" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="3"/>
       <c r="B186" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C186" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C187" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C188" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="3"/>
       <c r="B189" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C189" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="3"/>
       <c r="B190" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C190" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="3"/>
       <c r="B191" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C191" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="3"/>
       <c r="B192" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C192" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="3"/>
       <c r="B193" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C193" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="3"/>
       <c r="B194" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C194" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="3"/>
       <c r="B195" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C195" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="3"/>
       <c r="B196" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C196" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="3"/>
       <c r="B197" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C197" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C198" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="3"/>
       <c r="B199" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C199" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -2618,90 +2628,90 @@
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="3"/>
       <c r="B201" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C201" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="3"/>
       <c r="B202" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C202" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="3"/>
       <c r="B203" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C203" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="3"/>
       <c r="B204" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C204" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="3"/>
       <c r="B205" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C205" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="3"/>
       <c r="B206" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C206" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="3"/>
       <c r="B207" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C207" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="3"/>
       <c r="B208" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C208" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="3"/>
       <c r="B209" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C209" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="3"/>
       <c r="B210" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C210" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="3"/>
       <c r="B211" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C211" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="3"/>
       <c r="B212" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C212" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -2709,41 +2719,41 @@
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="3"/>
       <c r="B214" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C214" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="3"/>
       <c r="B215" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C215" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="3"/>
       <c r="B216" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C216" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="3"/>
       <c r="B217" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C217" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="3"/>
       <c r="B218" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C218" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -2751,55 +2761,55 @@
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="3"/>
       <c r="B220" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C220" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="3"/>
       <c r="B221" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C221" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="3"/>
       <c r="B222" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C222" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="3"/>
       <c r="B223" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C223" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="3"/>
       <c r="B224" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C224" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="3"/>
       <c r="B225" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C225" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="3"/>
       <c r="B226" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C226" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -2807,55 +2817,55 @@
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="3"/>
       <c r="B228" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C228" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="3"/>
       <c r="B229" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C229" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="3"/>
       <c r="B230" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C230" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="3"/>
       <c r="B231" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C231" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="3"/>
       <c r="B232" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C232" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="3"/>
       <c r="B233" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C233" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="3"/>
       <c r="B234" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C234" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -2863,41 +2873,41 @@
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="3"/>
       <c r="B236" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C236" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="3"/>
       <c r="B237" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C237" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="3"/>
       <c r="B238" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C238" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="3"/>
       <c r="B239" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="3"/>
       <c r="B240" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C240" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -2905,217 +2915,217 @@
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="3"/>
       <c r="B242" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C242" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="3"/>
       <c r="B243" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C243" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="3"/>
       <c r="B244" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C244" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="3"/>
       <c r="B245" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C245" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="3"/>
       <c r="B246" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C246" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="3"/>
       <c r="B247" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C247" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="3"/>
       <c r="B248" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C248" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="3"/>
       <c r="B249" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C249" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
       <c r="A250" s="3"/>
       <c r="B250" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C250" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
       <c r="A251" s="3"/>
       <c r="B251" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C251" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C252" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="3"/>
       <c r="B253" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C253" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="3"/>
       <c r="B254" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C254" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="3"/>
       <c r="B255" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C255" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="3"/>
       <c r="B256" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C256" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="3"/>
       <c r="B257" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C257" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="3"/>
       <c r="B258" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C258" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
       <c r="A259" s="3"/>
       <c r="B259" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C259" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
       <c r="A260" s="3"/>
       <c r="B260" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C260" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
       <c r="A261" s="3"/>
       <c r="B261" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C261" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="3"/>
       <c r="B262" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C262" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="3"/>
       <c r="B263" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C263" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="3"/>
       <c r="B264" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C264" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
       <c r="A265" s="3"/>
       <c r="B265" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C265" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="3"/>
       <c r="B266" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C266" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="3"/>
       <c r="B267" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C267" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
       <c r="A268" s="3"/>
       <c r="B268" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C268" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
       <c r="A269" s="3"/>
       <c r="B269" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C269" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="3"/>
       <c r="B270" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C270" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="3"/>
       <c r="B271" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C271" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
       <c r="A272" s="3"/>
       <c r="B272" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C272" s="3"/>
     </row>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Data Types (Non-Primitive)</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Type Conversion</t>
@@ -881,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -890,9 +887,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1206,9 +1200,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="42.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="45.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="42.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="45.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
@@ -1270,97 +1264,99 @@
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1368,132 +1364,132 @@
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1501,104 +1497,104 @@
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1606,174 +1602,174 @@
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C61" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C69" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C78" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1781,174 +1777,174 @@
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C80" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C82" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C83" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C84" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C85" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C86" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C87" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C88" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C90" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C91" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C92" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C95" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C96" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C97" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C98" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C99" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C100" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C102" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C103" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -1956,146 +1952,146 @@
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C105" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C106" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C107" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C108" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C109" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C110" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C111" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C112" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C113" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C114" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C115" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C116" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C117" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C118" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C119" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C120" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C121" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C122" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C123" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C124" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2103,76 +2099,76 @@
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C126" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C127" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C128" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C129" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C130" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C131" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C132" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C133" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C134" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C135" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2180,111 +2176,111 @@
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C137" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C138" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C139" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C140" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C141" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C142" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C143" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="3"/>
       <c r="B144" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C144" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C145" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="3"/>
       <c r="B146" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C146" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="3"/>
       <c r="B147" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C147" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="3"/>
       <c r="B148" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C148" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="3"/>
       <c r="B149" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C149" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="3"/>
       <c r="B150" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C150" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C151" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2292,69 +2288,69 @@
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="3"/>
       <c r="B153" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C153" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="3"/>
       <c r="B154" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="3"/>
       <c r="B155" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C155" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C156" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C157" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="3"/>
       <c r="B158" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C158" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="3"/>
       <c r="B159" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C159" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="3"/>
       <c r="B160" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C160" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C161" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -2362,153 +2358,153 @@
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C163" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="3"/>
       <c r="B164" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="3"/>
       <c r="B165" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C165" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C166" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="3"/>
       <c r="B167" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C167" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C168" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="3"/>
       <c r="B169" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C169" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="3"/>
       <c r="B170" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C170" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C171" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="3"/>
       <c r="B172" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C172" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="3"/>
       <c r="B173" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C173" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C174" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C175" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="3"/>
       <c r="B176" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C176" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C177" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C178" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C179" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C180" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C181" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="3"/>
       <c r="B182" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C182" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C183" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -2516,111 +2512,111 @@
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="3"/>
       <c r="B185" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C185" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="3"/>
       <c r="B186" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C186" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C187" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C188" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="3"/>
       <c r="B189" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C189" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="3"/>
       <c r="B190" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C190" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="3"/>
       <c r="B191" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C191" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="3"/>
       <c r="B192" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C192" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="3"/>
       <c r="B193" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C193" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="3"/>
       <c r="B194" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C194" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="3"/>
       <c r="B195" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C195" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="3"/>
       <c r="B196" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C196" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="3"/>
       <c r="B197" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C197" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C198" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="3"/>
       <c r="B199" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C199" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -2628,90 +2624,90 @@
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="3"/>
       <c r="B201" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C201" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="3"/>
       <c r="B202" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C202" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="3"/>
       <c r="B203" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C203" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="3"/>
       <c r="B204" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C204" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="3"/>
       <c r="B205" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C205" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="3"/>
       <c r="B206" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C206" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="3"/>
       <c r="B207" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C207" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="3"/>
       <c r="B208" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C208" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="3"/>
       <c r="B209" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C209" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="3"/>
       <c r="B210" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C210" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="3"/>
       <c r="B211" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C211" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="3"/>
       <c r="B212" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C212" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -2719,41 +2715,41 @@
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="3"/>
       <c r="B214" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C214" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="3"/>
       <c r="B215" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C215" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="3"/>
       <c r="B216" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C216" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="3"/>
       <c r="B217" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C217" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="3"/>
       <c r="B218" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C218" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -2761,55 +2757,55 @@
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="3"/>
       <c r="B220" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C220" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="3"/>
       <c r="B221" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C221" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="3"/>
       <c r="B222" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C222" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="3"/>
       <c r="B223" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C223" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="3"/>
       <c r="B224" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C224" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="3"/>
       <c r="B225" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C225" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="3"/>
       <c r="B226" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C226" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -2817,55 +2813,55 @@
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="3"/>
       <c r="B228" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C228" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="3"/>
       <c r="B229" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C229" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="3"/>
       <c r="B230" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C230" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="3"/>
       <c r="B231" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C231" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="3"/>
       <c r="B232" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C232" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="3"/>
       <c r="B233" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C233" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="3"/>
       <c r="B234" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C234" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -2873,41 +2869,41 @@
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="3"/>
       <c r="B236" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C236" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="3"/>
       <c r="B237" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C237" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="3"/>
       <c r="B238" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C238" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="3"/>
       <c r="B239" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="3"/>
       <c r="B240" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C240" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -2915,217 +2911,217 @@
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="3"/>
       <c r="B242" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C242" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="3"/>
       <c r="B243" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C243" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="3"/>
       <c r="B244" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C244" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="3"/>
       <c r="B245" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C245" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="3"/>
       <c r="B246" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C246" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="3"/>
       <c r="B247" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C247" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="3"/>
       <c r="B248" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C248" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="3"/>
       <c r="B249" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C249" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
       <c r="A250" s="3"/>
       <c r="B250" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C250" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
       <c r="A251" s="3"/>
       <c r="B251" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C251" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C252" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="3"/>
       <c r="B253" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C253" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="3"/>
       <c r="B254" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C254" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="3"/>
       <c r="B255" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C255" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="3"/>
       <c r="B256" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C256" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="3"/>
       <c r="B257" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C257" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="3"/>
       <c r="B258" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C258" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
       <c r="A259" s="3"/>
       <c r="B259" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C259" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
       <c r="A260" s="3"/>
       <c r="B260" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C260" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
       <c r="A261" s="3"/>
       <c r="B261" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C261" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="3"/>
       <c r="B262" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C262" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="3"/>
       <c r="B263" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C263" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="3"/>
       <c r="B264" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C264" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
       <c r="A265" s="3"/>
       <c r="B265" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C265" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="3"/>
       <c r="B266" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C266" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="3"/>
       <c r="B267" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C267" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
       <c r="A268" s="3"/>
       <c r="B268" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C268" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
       <c r="A269" s="3"/>
       <c r="B269" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C269" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="3"/>
       <c r="B270" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C270" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="3"/>
       <c r="B271" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C271" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
       <c r="A272" s="3"/>
       <c r="B272" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C272" s="3"/>
     </row>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1282,28 +1282,36 @@
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1318,14 +1318,18 @@
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1336,14 +1336,18 @@
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3"/>
@@ -1492,119 +1496,119 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C43" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C44" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C47" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C48" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C50" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C51" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C53" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="24.75">
       <c r="A54" s="2" t="s">
         <v>56</v>
       </c>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1354,7 +1354,9 @@
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1363,14 +1363,18 @@
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="2" t="s">

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -1340,7 +1340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>18</v>
@@ -1349,7 +1349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>19</v>
@@ -1358,7 +1358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>21</v>
@@ -1376,28 +1376,28 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>25</v>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1388,7 +1388,9 @@
       <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1397,14 +1397,18 @@
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1415,14 +1415,18 @@
       <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1433,7 +1433,9 @@
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1442,7 +1442,9 @@
       <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1451,7 +1451,9 @@
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1460,14 +1460,18 @@
       <c r="B29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1478,14 +1478,18 @@
       <c r="B31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1496,7 +1496,9 @@
       <c r="B33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1505,14 +1505,18 @@
       <c r="B34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1523,7 +1523,9 @@
       <c r="B36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1532,14 +1532,18 @@
       <c r="B37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
       <c r="A39" s="2" t="s">

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1557,7 +1557,9 @@
       <c r="B40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1566,7 +1566,9 @@
       <c r="B41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1575,14 +1575,18 @@
       <c r="B42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="266">
   <si>
     <t>Category</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>catch()</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
   <si>
     <t>finally()</t>
@@ -1593,74 +1596,78 @@
       <c r="B44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="24.75">
       <c r="A54" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1668,174 +1675,174 @@
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C64" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C65" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C66" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C71" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C72" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C74" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C75" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C76" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C77" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1843,174 +1850,174 @@
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C80" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C81" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C82" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C83" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C84" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C85" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C86" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C87" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C88" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C89" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C90" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C91" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C92" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C93" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C94" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C95" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C96" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C97" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C98" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C99" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C100" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C101" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C102" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C103" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2018,146 +2025,146 @@
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C105" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C106" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C107" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C108" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C109" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C110" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C111" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C112" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C113" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C114" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C115" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C116" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C117" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C118" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C119" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C120" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C121" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C122" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C123" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C124" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2165,76 +2172,76 @@
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C126" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C127" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C128" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C129" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C130" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C131" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C132" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C133" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C134" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C135" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2242,49 +2249,49 @@
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C137" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C138" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C139" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C140" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C141" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C142" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C143" s="3"/>
     </row>
@@ -2298,55 +2305,55 @@
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C145" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="3"/>
       <c r="B146" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C146" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="3"/>
       <c r="B147" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C147" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="3"/>
       <c r="B148" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C148" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="3"/>
       <c r="B149" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C149" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="3"/>
       <c r="B150" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C150" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C151" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2354,69 +2361,69 @@
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="3"/>
       <c r="B153" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C153" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="3"/>
       <c r="B154" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="3"/>
       <c r="B155" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C155" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C156" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C157" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="3"/>
       <c r="B158" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C158" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="3"/>
       <c r="B159" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C159" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="3"/>
       <c r="B160" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C160" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C161" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -2424,153 +2431,153 @@
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C163" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="3"/>
       <c r="B164" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="3"/>
       <c r="B165" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C165" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C166" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="3"/>
       <c r="B167" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C167" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C168" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="3"/>
       <c r="B169" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C169" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="3"/>
       <c r="B170" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C170" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C171" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="3"/>
       <c r="B172" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C172" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="3"/>
       <c r="B173" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C173" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C174" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C175" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="3"/>
       <c r="B176" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C176" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C177" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C178" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C179" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C180" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C181" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="3"/>
       <c r="B182" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C182" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C183" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -2578,111 +2585,111 @@
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="3"/>
       <c r="B185" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C185" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="3"/>
       <c r="B186" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C186" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C187" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C188" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="3"/>
       <c r="B189" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C189" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="3"/>
       <c r="B190" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C190" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="3"/>
       <c r="B191" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C191" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="3"/>
       <c r="B192" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C192" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="3"/>
       <c r="B193" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C193" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="3"/>
       <c r="B194" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C194" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="3"/>
       <c r="B195" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C195" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="3"/>
       <c r="B196" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C196" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="3"/>
       <c r="B197" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C197" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C198" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="3"/>
       <c r="B199" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C199" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -2690,90 +2697,90 @@
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="3"/>
       <c r="B201" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C201" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="3"/>
       <c r="B202" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C202" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="3"/>
       <c r="B203" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C203" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="3"/>
       <c r="B204" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C204" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="3"/>
       <c r="B205" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C205" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="3"/>
       <c r="B206" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C206" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="3"/>
       <c r="B207" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C207" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="3"/>
       <c r="B208" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C208" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="3"/>
       <c r="B209" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C209" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="3"/>
       <c r="B210" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C210" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="3"/>
       <c r="B211" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C211" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="3"/>
       <c r="B212" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C212" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -2781,41 +2788,41 @@
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="3"/>
       <c r="B214" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C214" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="3"/>
       <c r="B215" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C215" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="3"/>
       <c r="B216" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C216" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="3"/>
       <c r="B217" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C217" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="3"/>
       <c r="B218" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C218" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -2823,55 +2830,55 @@
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="3"/>
       <c r="B220" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C220" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="3"/>
       <c r="B221" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C221" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="3"/>
       <c r="B222" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C222" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="3"/>
       <c r="B223" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C223" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="3"/>
       <c r="B224" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C224" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="3"/>
       <c r="B225" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C225" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="3"/>
       <c r="B226" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C226" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -2879,55 +2886,55 @@
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="3"/>
       <c r="B228" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C228" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="3"/>
       <c r="B229" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C229" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="3"/>
       <c r="B230" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C230" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="3"/>
       <c r="B231" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C231" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="3"/>
       <c r="B232" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C232" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="3"/>
       <c r="B233" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C233" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="3"/>
       <c r="B234" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C234" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -2935,41 +2942,41 @@
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="3"/>
       <c r="B236" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C236" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="3"/>
       <c r="B237" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C237" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="3"/>
       <c r="B238" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C238" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="3"/>
       <c r="B239" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="3"/>
       <c r="B240" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C240" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -2977,217 +2984,217 @@
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="3"/>
       <c r="B242" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C242" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="3"/>
       <c r="B243" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C243" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="3"/>
       <c r="B244" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C244" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="3"/>
       <c r="B245" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C245" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="3"/>
       <c r="B246" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C246" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="3"/>
       <c r="B247" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C247" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="3"/>
       <c r="B248" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C248" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="3"/>
       <c r="B249" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C249" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
       <c r="A250" s="3"/>
       <c r="B250" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C250" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
       <c r="A251" s="3"/>
       <c r="B251" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C251" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C252" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="3"/>
       <c r="B253" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C253" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="3"/>
       <c r="B254" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C254" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="3"/>
       <c r="B255" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C255" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="3"/>
       <c r="B256" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C256" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="3"/>
       <c r="B257" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C257" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="3"/>
       <c r="B258" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C258" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
       <c r="A259" s="3"/>
       <c r="B259" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C259" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
       <c r="A260" s="3"/>
       <c r="B260" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C260" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
       <c r="A261" s="3"/>
       <c r="B261" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C261" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="3"/>
       <c r="B262" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C262" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="3"/>
       <c r="B263" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C263" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="3"/>
       <c r="B264" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C264" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
       <c r="A265" s="3"/>
       <c r="B265" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C265" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="3"/>
       <c r="B266" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C266" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="3"/>
       <c r="B267" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C267" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
       <c r="A268" s="3"/>
       <c r="B268" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C268" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
       <c r="A269" s="3"/>
       <c r="B269" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C269" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="3"/>
       <c r="B270" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C270" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="3"/>
       <c r="B271" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C271" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
       <c r="A272" s="3"/>
       <c r="B272" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C272" s="3"/>
     </row>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>catch()</t>
-  </si>
-  <si>
-    <t>e</t>
   </si>
   <si>
     <t>finally()</t>
@@ -1606,68 +1603,68 @@
         <v>47</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="24.75">
       <c r="A54" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1675,174 +1672,174 @@
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C61" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C69" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C78" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1850,174 +1847,174 @@
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C80" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C82" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C83" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C84" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C85" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C86" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C87" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C88" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C90" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C91" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C92" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C95" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C96" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C97" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C98" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C99" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C100" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C102" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C103" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2025,146 +2022,146 @@
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C105" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C106" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C107" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C108" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C109" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C110" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C111" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C112" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C113" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C114" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C115" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C116" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C117" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C118" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C119" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C120" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C121" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C122" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C123" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C124" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2172,76 +2169,76 @@
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C126" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C127" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C128" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C129" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C130" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C131" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C132" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C133" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C134" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C135" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2249,49 +2246,49 @@
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C137" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C138" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C139" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C140" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C141" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C142" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C143" s="3"/>
     </row>
@@ -2305,55 +2302,55 @@
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C145" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="3"/>
       <c r="B146" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C146" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="3"/>
       <c r="B147" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C147" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="3"/>
       <c r="B148" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C148" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="3"/>
       <c r="B149" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C149" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="3"/>
       <c r="B150" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C150" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C151" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2361,69 +2358,69 @@
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="3"/>
       <c r="B153" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C153" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="3"/>
       <c r="B154" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="3"/>
       <c r="B155" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C155" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C156" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C157" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="3"/>
       <c r="B158" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C158" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="3"/>
       <c r="B159" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C159" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="3"/>
       <c r="B160" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C160" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C161" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -2431,153 +2428,153 @@
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C163" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="3"/>
       <c r="B164" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="3"/>
       <c r="B165" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C165" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C166" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="3"/>
       <c r="B167" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C167" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C168" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="3"/>
       <c r="B169" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C169" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="3"/>
       <c r="B170" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C170" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C171" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="3"/>
       <c r="B172" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C172" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="3"/>
       <c r="B173" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C173" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C174" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C175" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="3"/>
       <c r="B176" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C176" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C177" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C178" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C179" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C180" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C181" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="3"/>
       <c r="B182" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C182" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C183" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -2585,111 +2582,111 @@
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="3"/>
       <c r="B185" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C185" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="3"/>
       <c r="B186" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C186" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C187" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C188" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="3"/>
       <c r="B189" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C189" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="3"/>
       <c r="B190" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C190" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="3"/>
       <c r="B191" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C191" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="3"/>
       <c r="B192" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C192" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="3"/>
       <c r="B193" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C193" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="3"/>
       <c r="B194" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C194" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="3"/>
       <c r="B195" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C195" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="3"/>
       <c r="B196" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C196" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="3"/>
       <c r="B197" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C197" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C198" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="3"/>
       <c r="B199" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C199" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -2697,90 +2694,90 @@
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="3"/>
       <c r="B201" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C201" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="3"/>
       <c r="B202" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C202" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="3"/>
       <c r="B203" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C203" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="3"/>
       <c r="B204" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C204" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="3"/>
       <c r="B205" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C205" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="3"/>
       <c r="B206" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C206" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="3"/>
       <c r="B207" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C207" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="3"/>
       <c r="B208" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C208" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="3"/>
       <c r="B209" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C209" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="3"/>
       <c r="B210" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C210" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="3"/>
       <c r="B211" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C211" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="3"/>
       <c r="B212" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C212" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -2788,41 +2785,41 @@
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="3"/>
       <c r="B214" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C214" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="3"/>
       <c r="B215" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C215" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="3"/>
       <c r="B216" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C216" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="3"/>
       <c r="B217" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C217" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="3"/>
       <c r="B218" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C218" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -2830,55 +2827,55 @@
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="3"/>
       <c r="B220" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C220" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="3"/>
       <c r="B221" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C221" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="3"/>
       <c r="B222" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C222" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="3"/>
       <c r="B223" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C223" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="3"/>
       <c r="B224" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C224" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="3"/>
       <c r="B225" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C225" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="3"/>
       <c r="B226" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C226" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -2886,55 +2883,55 @@
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="3"/>
       <c r="B228" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C228" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="3"/>
       <c r="B229" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C229" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="3"/>
       <c r="B230" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C230" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="3"/>
       <c r="B231" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C231" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="3"/>
       <c r="B232" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C232" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="3"/>
       <c r="B233" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C233" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="3"/>
       <c r="B234" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C234" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -2942,41 +2939,41 @@
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="3"/>
       <c r="B236" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C236" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="3"/>
       <c r="B237" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C237" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="3"/>
       <c r="B238" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C238" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="3"/>
       <c r="B239" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="3"/>
       <c r="B240" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C240" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -2984,217 +2981,217 @@
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="3"/>
       <c r="B242" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C242" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="3"/>
       <c r="B243" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C243" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="3"/>
       <c r="B244" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C244" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="3"/>
       <c r="B245" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C245" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="3"/>
       <c r="B246" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C246" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="3"/>
       <c r="B247" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C247" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="3"/>
       <c r="B248" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C248" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="3"/>
       <c r="B249" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C249" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
       <c r="A250" s="3"/>
       <c r="B250" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C250" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
       <c r="A251" s="3"/>
       <c r="B251" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C251" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C252" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="3"/>
       <c r="B253" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C253" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="3"/>
       <c r="B254" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C254" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="3"/>
       <c r="B255" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C255" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="3"/>
       <c r="B256" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C256" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="3"/>
       <c r="B257" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C257" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="3"/>
       <c r="B258" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C258" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
       <c r="A259" s="3"/>
       <c r="B259" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C259" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
       <c r="A260" s="3"/>
       <c r="B260" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C260" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
       <c r="A261" s="3"/>
       <c r="B261" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C261" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="3"/>
       <c r="B262" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C262" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="3"/>
       <c r="B263" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C263" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="3"/>
       <c r="B264" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C264" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
       <c r="A265" s="3"/>
       <c r="B265" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C265" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="3"/>
       <c r="B266" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C266" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="3"/>
       <c r="B267" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C267" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
       <c r="A268" s="3"/>
       <c r="B268" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C268" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
       <c r="A269" s="3"/>
       <c r="B269" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C269" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="3"/>
       <c r="B270" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C270" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="3"/>
       <c r="B271" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C271" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
       <c r="A272" s="3"/>
       <c r="B272" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C272" s="3"/>
     </row>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1611,21 +1611,27 @@
       <c r="B46" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1638,14 +1638,18 @@
       <c r="B49" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1656,14 +1656,18 @@
       <c r="B51" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1674,7 +1674,9 @@
       <c r="B53" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="24.75">
       <c r="A54" s="2" t="s">

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1690,7 +1690,9 @@
       <c r="B55" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1699,14 +1699,18 @@
       <c r="B56" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1717,7 +1717,9 @@
       <c r="B58" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -2272,7 +2272,9 @@
       <c r="B137" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C137" s="3"/>
+      <c r="C137" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -2225,49 +2225,49 @@
       </c>
       <c r="C130" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C131" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C132" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C133" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C134" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C135" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="24.75">
       <c r="A136" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
         <v>134</v>
@@ -2276,42 +2276,48 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C138" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+      <c r="C138" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+      <c r="C139" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C140" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+      <c r="C140" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C141" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C142" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
         <v>140</v>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -2324,14 +2324,14 @@
       </c>
       <c r="C143" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
       <c r="A144" s="3"/>
       <c r="B144" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C144" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
         <v>141</v>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -2308,21 +2308,27 @@
       <c r="B141" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C141" s="3"/>
+      <c r="C141" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C142" s="3"/>
+      <c r="C142" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C143" s="3"/>
+      <c r="C143" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
       <c r="A144" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -2335,7 +2335,9 @@
       <c r="B144" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C144" s="3"/>
+      <c r="C144" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
       <c r="A145" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -2344,14 +2344,18 @@
       <c r="B145" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C145" s="3"/>
+      <c r="C145" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="3"/>
       <c r="B146" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C146" s="3"/>
+      <c r="C146" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -2362,7 +2362,9 @@
       <c r="B147" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C147" s="3"/>
+      <c r="C147" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -2371,28 +2371,36 @@
       <c r="B148" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C148" s="3"/>
+      <c r="C148" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="3"/>
       <c r="B149" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C149" s="3"/>
+      <c r="C149" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="3"/>
       <c r="B150" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C150" s="3"/>
+      <c r="C150" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C151" s="3"/>
+      <c r="C151" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="2" t="s">

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1726,7 +1726,9 @@
       <c r="B59" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1735,21 +1735,27 @@
       <c r="B60" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1762,7 +1762,9 @@
       <c r="B63" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="266">
   <si>
     <t>Category</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>lastIndexOf()</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
   <si>
     <t>push()</t>
@@ -1771,109 +1774,113 @@
       <c r="B64" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="3"/>
+      <c r="C65" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C66" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C71" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C72" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C74" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C75" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C76" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C77" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1881,7 +1888,7 @@
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C80" s="3"/>
     </row>
@@ -1909,146 +1916,146 @@
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C84" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C85" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C86" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C87" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C88" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C89" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C90" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C91" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C92" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C93" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C94" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C95" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C96" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C97" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C98" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C99" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C100" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C101" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C102" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C103" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2056,146 +2063,146 @@
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C105" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C106" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C107" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C108" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C109" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C110" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C111" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C112" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C113" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C114" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C115" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C116" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C117" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C118" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C119" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C120" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C121" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C122" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C123" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C124" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2203,76 +2210,76 @@
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C126" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C127" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C128" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C129" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C130" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C131" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C132" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C133" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C134" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C135" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="24.75">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2280,7 +2287,7 @@
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>5</v>
@@ -2289,7 +2296,7 @@
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>5</v>
@@ -2298,7 +2305,7 @@
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>5</v>
@@ -2307,7 +2314,7 @@
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>5</v>
@@ -2316,7 +2323,7 @@
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>5</v>
@@ -2325,7 +2332,7 @@
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>5</v>
@@ -2334,7 +2341,7 @@
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>5</v>
@@ -2352,7 +2359,7 @@
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>5</v>
@@ -2361,7 +2368,7 @@
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="3"/>
       <c r="B146" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>5</v>
@@ -2370,7 +2377,7 @@
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="3"/>
       <c r="B147" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>5</v>
@@ -2379,7 +2386,7 @@
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="3"/>
       <c r="B148" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>5</v>
@@ -2388,7 +2395,7 @@
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="3"/>
       <c r="B149" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>5</v>
@@ -2397,7 +2404,7 @@
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="3"/>
       <c r="B150" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>5</v>
@@ -2406,7 +2413,7 @@
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>5</v>
@@ -2414,7 +2421,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2422,69 +2429,69 @@
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="3"/>
       <c r="B153" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C153" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="3"/>
       <c r="B154" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="3"/>
       <c r="B155" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C155" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C156" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C157" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="3"/>
       <c r="B158" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C158" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="3"/>
       <c r="B159" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C159" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="3"/>
       <c r="B160" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C160" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C161" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -2492,153 +2499,153 @@
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C163" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="3"/>
       <c r="B164" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="3"/>
       <c r="B165" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C165" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C166" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="3"/>
       <c r="B167" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C167" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C168" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="3"/>
       <c r="B169" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C169" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="3"/>
       <c r="B170" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C170" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C171" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="3"/>
       <c r="B172" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C172" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="3"/>
       <c r="B173" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C173" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C174" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C175" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="3"/>
       <c r="B176" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C176" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C177" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C178" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C179" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C180" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C181" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="3"/>
       <c r="B182" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C182" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C183" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -2646,111 +2653,111 @@
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="3"/>
       <c r="B185" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C185" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="3"/>
       <c r="B186" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C186" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C187" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C188" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="3"/>
       <c r="B189" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C189" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="3"/>
       <c r="B190" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C190" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="3"/>
       <c r="B191" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C191" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="3"/>
       <c r="B192" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C192" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="3"/>
       <c r="B193" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C193" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="3"/>
       <c r="B194" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C194" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="3"/>
       <c r="B195" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C195" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="3"/>
       <c r="B196" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C196" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="3"/>
       <c r="B197" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C197" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C198" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="3"/>
       <c r="B199" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C199" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -2758,90 +2765,90 @@
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="3"/>
       <c r="B201" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C201" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="3"/>
       <c r="B202" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C202" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="3"/>
       <c r="B203" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C203" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="3"/>
       <c r="B204" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C204" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="3"/>
       <c r="B205" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C205" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="3"/>
       <c r="B206" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C206" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="3"/>
       <c r="B207" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C207" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="3"/>
       <c r="B208" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C208" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="3"/>
       <c r="B209" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C209" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="3"/>
       <c r="B210" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C210" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="3"/>
       <c r="B211" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C211" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="3"/>
       <c r="B212" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C212" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -2849,41 +2856,41 @@
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="3"/>
       <c r="B214" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C214" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="3"/>
       <c r="B215" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C215" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="3"/>
       <c r="B216" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C216" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="3"/>
       <c r="B217" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C217" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="3"/>
       <c r="B218" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C218" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -2891,55 +2898,55 @@
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="3"/>
       <c r="B220" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C220" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="3"/>
       <c r="B221" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C221" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="3"/>
       <c r="B222" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C222" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="3"/>
       <c r="B223" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C223" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="3"/>
       <c r="B224" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C224" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="3"/>
       <c r="B225" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C225" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="3"/>
       <c r="B226" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C226" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -2947,55 +2954,55 @@
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="3"/>
       <c r="B228" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C228" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="3"/>
       <c r="B229" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C229" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="3"/>
       <c r="B230" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C230" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="3"/>
       <c r="B231" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C231" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="3"/>
       <c r="B232" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C232" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="3"/>
       <c r="B233" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C233" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="3"/>
       <c r="B234" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C234" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -3003,41 +3010,41 @@
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="3"/>
       <c r="B236" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C236" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="3"/>
       <c r="B237" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C237" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="3"/>
       <c r="B238" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C238" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="3"/>
       <c r="B239" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="3"/>
       <c r="B240" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C240" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -3045,217 +3052,217 @@
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="3"/>
       <c r="B242" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C242" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="3"/>
       <c r="B243" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C243" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="3"/>
       <c r="B244" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C244" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="3"/>
       <c r="B245" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C245" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="3"/>
       <c r="B246" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C246" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="3"/>
       <c r="B247" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C247" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="3"/>
       <c r="B248" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C248" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="3"/>
       <c r="B249" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C249" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
       <c r="A250" s="3"/>
       <c r="B250" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C250" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
       <c r="A251" s="3"/>
       <c r="B251" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C251" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C252" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="3"/>
       <c r="B253" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C253" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="3"/>
       <c r="B254" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C254" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="3"/>
       <c r="B255" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C255" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="3"/>
       <c r="B256" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C256" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="3"/>
       <c r="B257" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C257" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="3"/>
       <c r="B258" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C258" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
       <c r="A259" s="3"/>
       <c r="B259" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C259" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
       <c r="A260" s="3"/>
       <c r="B260" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C260" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
       <c r="A261" s="3"/>
       <c r="B261" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C261" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="3"/>
       <c r="B262" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C262" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="3"/>
       <c r="B263" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C263" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="3"/>
       <c r="B264" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C264" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
       <c r="A265" s="3"/>
       <c r="B265" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C265" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="3"/>
       <c r="B266" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C266" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="3"/>
       <c r="B267" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C267" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
       <c r="A268" s="3"/>
       <c r="B268" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C268" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
       <c r="A269" s="3"/>
       <c r="B269" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C269" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="3"/>
       <c r="B270" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C270" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="3"/>
       <c r="B271" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C271" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
       <c r="A272" s="3"/>
       <c r="B272" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C272" s="3"/>
     </row>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -218,9 +218,6 @@
   </si>
   <si>
     <t>lastIndexOf()</t>
-  </si>
-  <si>
-    <t>e</t>
   </si>
   <si>
     <t>push()</t>
@@ -1784,103 +1781,103 @@
         <v>67</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C69" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C78" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1888,7 +1885,7 @@
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C80" s="3"/>
     </row>
@@ -1916,146 +1913,146 @@
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C84" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C85" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C86" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C87" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C88" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C90" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C91" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C92" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C95" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C96" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C97" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C98" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C99" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C100" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C102" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C103" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2063,146 +2060,146 @@
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C105" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C106" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C107" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C108" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C109" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C110" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C111" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C112" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C113" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C114" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C115" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C116" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C117" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C118" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C119" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C120" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C121" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C122" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C123" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C124" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2210,76 +2207,76 @@
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C126" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C127" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C128" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C129" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C130" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C131" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C132" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C133" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C134" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C135" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="24.75">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2287,7 +2284,7 @@
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>5</v>
@@ -2296,7 +2293,7 @@
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>5</v>
@@ -2305,7 +2302,7 @@
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>5</v>
@@ -2314,7 +2311,7 @@
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>5</v>
@@ -2323,7 +2320,7 @@
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>5</v>
@@ -2332,7 +2329,7 @@
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>5</v>
@@ -2341,7 +2338,7 @@
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>5</v>
@@ -2359,7 +2356,7 @@
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>5</v>
@@ -2368,7 +2365,7 @@
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="3"/>
       <c r="B146" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>5</v>
@@ -2377,7 +2374,7 @@
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="3"/>
       <c r="B147" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>5</v>
@@ -2386,7 +2383,7 @@
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="3"/>
       <c r="B148" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>5</v>
@@ -2395,7 +2392,7 @@
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="3"/>
       <c r="B149" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>5</v>
@@ -2404,7 +2401,7 @@
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="3"/>
       <c r="B150" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>5</v>
@@ -2413,7 +2410,7 @@
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>5</v>
@@ -2421,7 +2418,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2429,69 +2426,69 @@
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="3"/>
       <c r="B153" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C153" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="3"/>
       <c r="B154" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="3"/>
       <c r="B155" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C155" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C156" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C157" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="3"/>
       <c r="B158" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C158" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="3"/>
       <c r="B159" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C159" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="3"/>
       <c r="B160" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C160" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C161" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -2499,153 +2496,153 @@
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C163" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="3"/>
       <c r="B164" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="3"/>
       <c r="B165" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C165" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C166" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="3"/>
       <c r="B167" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C167" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C168" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="3"/>
       <c r="B169" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C169" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="3"/>
       <c r="B170" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C170" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C171" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="3"/>
       <c r="B172" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C172" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="3"/>
       <c r="B173" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C173" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C174" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C175" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="3"/>
       <c r="B176" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C176" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C177" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C178" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C179" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C180" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C181" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="3"/>
       <c r="B182" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C182" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C183" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -2653,111 +2650,111 @@
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="3"/>
       <c r="B185" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C185" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="3"/>
       <c r="B186" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C186" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C187" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C188" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="3"/>
       <c r="B189" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C189" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="3"/>
       <c r="B190" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C190" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="3"/>
       <c r="B191" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C191" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="3"/>
       <c r="B192" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C192" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="3"/>
       <c r="B193" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C193" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="3"/>
       <c r="B194" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C194" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="3"/>
       <c r="B195" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C195" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="3"/>
       <c r="B196" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C196" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="3"/>
       <c r="B197" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C197" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C198" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="3"/>
       <c r="B199" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C199" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -2765,90 +2762,90 @@
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="3"/>
       <c r="B201" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C201" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="3"/>
       <c r="B202" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C202" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="3"/>
       <c r="B203" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C203" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="3"/>
       <c r="B204" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C204" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="3"/>
       <c r="B205" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C205" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="3"/>
       <c r="B206" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C206" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="3"/>
       <c r="B207" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C207" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="3"/>
       <c r="B208" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C208" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="3"/>
       <c r="B209" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C209" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="3"/>
       <c r="B210" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C210" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="3"/>
       <c r="B211" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C211" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="3"/>
       <c r="B212" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C212" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -2856,41 +2853,41 @@
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="3"/>
       <c r="B214" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C214" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="3"/>
       <c r="B215" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C215" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="3"/>
       <c r="B216" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C216" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="3"/>
       <c r="B217" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C217" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="3"/>
       <c r="B218" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C218" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -2898,55 +2895,55 @@
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="3"/>
       <c r="B220" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C220" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="3"/>
       <c r="B221" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C221" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="3"/>
       <c r="B222" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C222" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="3"/>
       <c r="B223" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C223" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="3"/>
       <c r="B224" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C224" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="3"/>
       <c r="B225" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C225" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="3"/>
       <c r="B226" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C226" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -2954,55 +2951,55 @@
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="3"/>
       <c r="B228" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C228" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="3"/>
       <c r="B229" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C229" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="3"/>
       <c r="B230" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C230" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="3"/>
       <c r="B231" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C231" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="3"/>
       <c r="B232" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C232" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="3"/>
       <c r="B233" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C233" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="3"/>
       <c r="B234" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C234" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -3010,41 +3007,41 @@
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="3"/>
       <c r="B236" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C236" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="3"/>
       <c r="B237" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C237" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="3"/>
       <c r="B238" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C238" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="3"/>
       <c r="B239" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="3"/>
       <c r="B240" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C240" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -3052,217 +3049,217 @@
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="3"/>
       <c r="B242" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C242" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="3"/>
       <c r="B243" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C243" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="3"/>
       <c r="B244" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C244" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="3"/>
       <c r="B245" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C245" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="3"/>
       <c r="B246" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C246" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="3"/>
       <c r="B247" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C247" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="3"/>
       <c r="B248" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C248" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="3"/>
       <c r="B249" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C249" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
       <c r="A250" s="3"/>
       <c r="B250" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C250" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
       <c r="A251" s="3"/>
       <c r="B251" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C251" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C252" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="3"/>
       <c r="B253" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C253" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="3"/>
       <c r="B254" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C254" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="3"/>
       <c r="B255" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C255" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="3"/>
       <c r="B256" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C256" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="3"/>
       <c r="B257" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C257" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="3"/>
       <c r="B258" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C258" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
       <c r="A259" s="3"/>
       <c r="B259" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C259" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
       <c r="A260" s="3"/>
       <c r="B260" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C260" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
       <c r="A261" s="3"/>
       <c r="B261" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C261" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="3"/>
       <c r="B262" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C262" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="3"/>
       <c r="B263" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C263" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="3"/>
       <c r="B264" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C264" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
       <c r="A265" s="3"/>
       <c r="B265" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C265" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="3"/>
       <c r="B266" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C266" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="3"/>
       <c r="B267" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C267" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
       <c r="A268" s="3"/>
       <c r="B268" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C268" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
       <c r="A269" s="3"/>
       <c r="B269" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C269" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="3"/>
       <c r="B270" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C270" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="3"/>
       <c r="B271" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C271" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
       <c r="A272" s="3"/>
       <c r="B272" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C272" s="3"/>
     </row>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1789,7 +1789,9 @@
       <c r="B66" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1798,7 +1798,9 @@
       <c r="B67" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1807,7 +1807,9 @@
       <c r="B68" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1816,7 +1816,9 @@
       <c r="B69" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="3"/>
+      <c r="C69" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1825,7 +1825,9 @@
       <c r="B70" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="266">
   <si>
     <t>Category</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>splice()</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>flat()</t>
@@ -878,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -887,6 +890,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1200,9 +1206,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="42.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="45.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="42.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="45.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
@@ -1834,60 +1840,64 @@
       <c r="B71" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="3"/>
+      <c r="C71" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="3"/>
+      <c r="C72" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C74" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C75" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C76" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C77" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1895,7 +1905,7 @@
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C80" s="3"/>
     </row>
@@ -1923,42 +1933,42 @@
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C84" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C85" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C86" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C87" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C88" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C89" s="3"/>
     </row>
@@ -1972,63 +1982,63 @@
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C91" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C92" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C93" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C94" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C95" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C96" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C97" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C98" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C99" s="3"/>
     </row>
@@ -2042,27 +2052,27 @@
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C101" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C102" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C103" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2070,146 +2080,146 @@
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C105" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C106" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C107" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C108" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C109" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C110" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C111" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C112" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C113" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C114" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C115" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C116" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C117" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C118" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C119" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C120" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C121" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C122" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C123" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C124" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2217,76 +2227,76 @@
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C126" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C127" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C128" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C129" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C130" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C131" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C132" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C133" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C134" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C135" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="24.75">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2294,7 +2304,7 @@
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>5</v>
@@ -2303,7 +2313,7 @@
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>5</v>
@@ -2312,7 +2322,7 @@
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>5</v>
@@ -2321,7 +2331,7 @@
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>5</v>
@@ -2330,7 +2340,7 @@
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>5</v>
@@ -2339,7 +2349,7 @@
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>5</v>
@@ -2348,7 +2358,7 @@
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>5</v>
@@ -2366,7 +2376,7 @@
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>5</v>
@@ -2375,7 +2385,7 @@
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="3"/>
       <c r="B146" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>5</v>
@@ -2384,7 +2394,7 @@
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="3"/>
       <c r="B147" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>5</v>
@@ -2393,7 +2403,7 @@
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="3"/>
       <c r="B148" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>5</v>
@@ -2402,7 +2412,7 @@
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="3"/>
       <c r="B149" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>5</v>
@@ -2411,7 +2421,7 @@
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="3"/>
       <c r="B150" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>5</v>
@@ -2420,7 +2430,7 @@
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>5</v>
@@ -2428,7 +2438,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2436,69 +2446,69 @@
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="3"/>
       <c r="B153" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C153" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="3"/>
       <c r="B154" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="3"/>
       <c r="B155" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C155" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C156" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C157" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="3"/>
       <c r="B158" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C158" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="3"/>
       <c r="B159" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C159" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="3"/>
       <c r="B160" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C160" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C161" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -2506,153 +2516,153 @@
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C163" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="3"/>
       <c r="B164" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="3"/>
       <c r="B165" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C165" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C166" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="3"/>
       <c r="B167" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C167" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C168" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="3"/>
       <c r="B169" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C169" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="3"/>
       <c r="B170" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C170" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C171" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="3"/>
       <c r="B172" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C172" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="3"/>
       <c r="B173" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C173" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C174" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C175" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="3"/>
       <c r="B176" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C176" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C177" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C178" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C179" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C180" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C181" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="3"/>
       <c r="B182" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C182" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C183" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -2660,111 +2670,111 @@
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="3"/>
       <c r="B185" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C185" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="3"/>
       <c r="B186" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C186" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C187" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C188" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="3"/>
       <c r="B189" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C189" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="3"/>
       <c r="B190" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C190" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="3"/>
       <c r="B191" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C191" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="3"/>
       <c r="B192" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C192" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="3"/>
       <c r="B193" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C193" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="3"/>
       <c r="B194" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C194" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="3"/>
       <c r="B195" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C195" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="3"/>
       <c r="B196" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C196" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="3"/>
       <c r="B197" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C197" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C198" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="3"/>
       <c r="B199" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C199" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -2772,90 +2782,90 @@
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="3"/>
       <c r="B201" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C201" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="3"/>
       <c r="B202" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C202" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="3"/>
       <c r="B203" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C203" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="3"/>
       <c r="B204" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C204" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="3"/>
       <c r="B205" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C205" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="3"/>
       <c r="B206" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C206" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="3"/>
       <c r="B207" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C207" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="3"/>
       <c r="B208" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C208" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="3"/>
       <c r="B209" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C209" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="3"/>
       <c r="B210" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C210" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="3"/>
       <c r="B211" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C211" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="3"/>
       <c r="B212" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C212" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -2863,41 +2873,41 @@
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="3"/>
       <c r="B214" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C214" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="3"/>
       <c r="B215" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C215" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="3"/>
       <c r="B216" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C216" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="3"/>
       <c r="B217" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C217" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="3"/>
       <c r="B218" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C218" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -2905,55 +2915,55 @@
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="3"/>
       <c r="B220" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C220" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="3"/>
       <c r="B221" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C221" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="3"/>
       <c r="B222" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C222" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="3"/>
       <c r="B223" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C223" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="3"/>
       <c r="B224" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C224" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="3"/>
       <c r="B225" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C225" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="3"/>
       <c r="B226" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C226" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -2961,55 +2971,55 @@
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="3"/>
       <c r="B228" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C228" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="3"/>
       <c r="B229" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C229" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="3"/>
       <c r="B230" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C230" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="3"/>
       <c r="B231" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C231" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="3"/>
       <c r="B232" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C232" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="3"/>
       <c r="B233" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C233" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="3"/>
       <c r="B234" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C234" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -3017,41 +3027,41 @@
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="3"/>
       <c r="B236" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C236" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="3"/>
       <c r="B237" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C237" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="3"/>
       <c r="B238" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C238" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="3"/>
       <c r="B239" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="3"/>
       <c r="B240" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C240" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -3059,217 +3069,217 @@
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="3"/>
       <c r="B242" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C242" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="3"/>
       <c r="B243" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C243" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="3"/>
       <c r="B244" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C244" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="3"/>
       <c r="B245" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C245" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="3"/>
       <c r="B246" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C246" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="3"/>
       <c r="B247" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C247" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="3"/>
       <c r="B248" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C248" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="3"/>
       <c r="B249" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C249" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
       <c r="A250" s="3"/>
       <c r="B250" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C250" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
       <c r="A251" s="3"/>
       <c r="B251" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C251" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C252" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="3"/>
       <c r="B253" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C253" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="3"/>
       <c r="B254" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C254" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="3"/>
       <c r="B255" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C255" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="3"/>
       <c r="B256" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C256" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="3"/>
       <c r="B257" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C257" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="3"/>
       <c r="B258" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C258" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
       <c r="A259" s="3"/>
       <c r="B259" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C259" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
       <c r="A260" s="3"/>
       <c r="B260" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C260" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
       <c r="A261" s="3"/>
       <c r="B261" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C261" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="3"/>
       <c r="B262" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C262" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="3"/>
       <c r="B263" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C263" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="3"/>
       <c r="B264" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C264" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
       <c r="A265" s="3"/>
       <c r="B265" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C265" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="3"/>
       <c r="B266" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C266" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="3"/>
       <c r="B267" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C267" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
       <c r="A268" s="3"/>
       <c r="B268" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C268" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
       <c r="A269" s="3"/>
       <c r="B269" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C269" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="3"/>
       <c r="B270" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C270" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="3"/>
       <c r="B271" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C271" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
       <c r="A272" s="3"/>
       <c r="B272" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C272" s="3"/>
     </row>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -239,9 +239,6 @@
   </si>
   <si>
     <t>splice()</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>flat()</t>
@@ -881,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -890,9 +887,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1206,9 +1200,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="42.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="45.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="42.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="45.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
@@ -1849,55 +1843,55 @@
       <c r="B72" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>75</v>
+      <c r="C72" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C78" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1905,7 +1899,7 @@
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C80" s="3"/>
     </row>
@@ -1933,42 +1927,42 @@
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C84" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C85" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C86" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C87" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C88" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89" s="3"/>
     </row>
@@ -1982,63 +1976,63 @@
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C91" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C92" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C95" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C96" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C97" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C98" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C99" s="3"/>
     </row>
@@ -2052,27 +2046,27 @@
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C102" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C103" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2080,146 +2074,146 @@
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C105" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C106" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C107" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C108" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C109" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C110" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C111" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C112" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C113" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C114" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C115" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C116" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C117" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C118" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C119" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C120" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C121" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C122" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C123" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C124" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2227,76 +2221,76 @@
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C126" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C127" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C128" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C129" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C130" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C131" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C132" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C133" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C134" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C135" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="24.75">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2304,7 +2298,7 @@
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>5</v>
@@ -2313,7 +2307,7 @@
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>5</v>
@@ -2322,7 +2316,7 @@
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>5</v>
@@ -2331,7 +2325,7 @@
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>5</v>
@@ -2340,7 +2334,7 @@
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>5</v>
@@ -2349,7 +2343,7 @@
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>5</v>
@@ -2358,7 +2352,7 @@
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>5</v>
@@ -2376,7 +2370,7 @@
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>5</v>
@@ -2385,7 +2379,7 @@
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="3"/>
       <c r="B146" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>5</v>
@@ -2394,7 +2388,7 @@
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="3"/>
       <c r="B147" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>5</v>
@@ -2403,7 +2397,7 @@
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="3"/>
       <c r="B148" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>5</v>
@@ -2412,7 +2406,7 @@
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="3"/>
       <c r="B149" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>5</v>
@@ -2421,7 +2415,7 @@
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="3"/>
       <c r="B150" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>5</v>
@@ -2430,7 +2424,7 @@
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>5</v>
@@ -2438,7 +2432,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2446,69 +2440,69 @@
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="3"/>
       <c r="B153" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C153" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="3"/>
       <c r="B154" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="3"/>
       <c r="B155" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C155" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C156" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C157" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="3"/>
       <c r="B158" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C158" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="3"/>
       <c r="B159" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C159" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="3"/>
       <c r="B160" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C160" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C161" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -2516,153 +2510,153 @@
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C163" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="3"/>
       <c r="B164" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="3"/>
       <c r="B165" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C165" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C166" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="3"/>
       <c r="B167" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C167" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C168" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="3"/>
       <c r="B169" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C169" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="3"/>
       <c r="B170" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C170" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C171" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="3"/>
       <c r="B172" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C172" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="3"/>
       <c r="B173" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C173" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C174" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C175" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="3"/>
       <c r="B176" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C176" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C177" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C178" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C179" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C180" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C181" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="3"/>
       <c r="B182" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C182" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C183" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -2670,111 +2664,111 @@
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="3"/>
       <c r="B185" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C185" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="3"/>
       <c r="B186" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C186" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C187" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C188" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="3"/>
       <c r="B189" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C189" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="3"/>
       <c r="B190" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C190" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="3"/>
       <c r="B191" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C191" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="3"/>
       <c r="B192" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C192" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="3"/>
       <c r="B193" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C193" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="3"/>
       <c r="B194" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C194" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="3"/>
       <c r="B195" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C195" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="3"/>
       <c r="B196" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C196" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="3"/>
       <c r="B197" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C197" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C198" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="3"/>
       <c r="B199" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C199" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -2782,90 +2776,90 @@
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="3"/>
       <c r="B201" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C201" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="3"/>
       <c r="B202" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C202" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="3"/>
       <c r="B203" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C203" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="3"/>
       <c r="B204" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C204" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="3"/>
       <c r="B205" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C205" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="3"/>
       <c r="B206" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C206" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="3"/>
       <c r="B207" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C207" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="3"/>
       <c r="B208" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C208" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="3"/>
       <c r="B209" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C209" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="3"/>
       <c r="B210" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C210" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="3"/>
       <c r="B211" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C211" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="3"/>
       <c r="B212" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C212" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -2873,41 +2867,41 @@
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="3"/>
       <c r="B214" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C214" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="3"/>
       <c r="B215" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C215" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="3"/>
       <c r="B216" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C216" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="3"/>
       <c r="B217" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C217" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="3"/>
       <c r="B218" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C218" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -2915,55 +2909,55 @@
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="3"/>
       <c r="B220" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C220" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="3"/>
       <c r="B221" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C221" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="3"/>
       <c r="B222" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C222" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="3"/>
       <c r="B223" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C223" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="3"/>
       <c r="B224" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C224" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="3"/>
       <c r="B225" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C225" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="3"/>
       <c r="B226" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C226" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -2971,55 +2965,55 @@
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="3"/>
       <c r="B228" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C228" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="3"/>
       <c r="B229" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C229" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="3"/>
       <c r="B230" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C230" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="3"/>
       <c r="B231" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C231" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="3"/>
       <c r="B232" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C232" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="3"/>
       <c r="B233" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C233" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="3"/>
       <c r="B234" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C234" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -3027,41 +3021,41 @@
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="3"/>
       <c r="B236" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C236" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="3"/>
       <c r="B237" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C237" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="3"/>
       <c r="B238" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C238" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="3"/>
       <c r="B239" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="3"/>
       <c r="B240" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C240" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -3069,217 +3063,217 @@
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="3"/>
       <c r="B242" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C242" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="3"/>
       <c r="B243" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C243" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="3"/>
       <c r="B244" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C244" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="3"/>
       <c r="B245" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C245" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="3"/>
       <c r="B246" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C246" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="3"/>
       <c r="B247" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C247" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="3"/>
       <c r="B248" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C248" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="3"/>
       <c r="B249" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C249" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
       <c r="A250" s="3"/>
       <c r="B250" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C250" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
       <c r="A251" s="3"/>
       <c r="B251" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C251" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C252" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="3"/>
       <c r="B253" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C253" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="3"/>
       <c r="B254" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C254" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="3"/>
       <c r="B255" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C255" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="3"/>
       <c r="B256" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C256" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="3"/>
       <c r="B257" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C257" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="3"/>
       <c r="B258" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C258" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
       <c r="A259" s="3"/>
       <c r="B259" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C259" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
       <c r="A260" s="3"/>
       <c r="B260" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C260" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
       <c r="A261" s="3"/>
       <c r="B261" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C261" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="3"/>
       <c r="B262" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C262" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="3"/>
       <c r="B263" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C263" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="3"/>
       <c r="B264" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C264" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
       <c r="A265" s="3"/>
       <c r="B265" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C265" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="3"/>
       <c r="B266" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C266" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="3"/>
       <c r="B267" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C267" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
       <c r="A268" s="3"/>
       <c r="B268" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C268" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
       <c r="A269" s="3"/>
       <c r="B269" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C269" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="3"/>
       <c r="B270" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C270" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="3"/>
       <c r="B271" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C271" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
       <c r="A272" s="3"/>
       <c r="B272" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C272" s="3"/>
     </row>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1852,7 +1852,9 @@
       <c r="B73" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="3"/>
+      <c r="C73" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1861,7 +1861,9 @@
       <c r="B74" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1870,7 +1870,9 @@
       <c r="B75" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="3"/>
+      <c r="C75" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1879,21 +1879,27 @@
       <c r="B76" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="3"/>
+      <c r="C76" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C77" s="3"/>
+      <c r="C77" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="3"/>
+      <c r="C78" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="2" t="s">

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1913,7 +1913,9 @@
       <c r="B80" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="3"/>
+      <c r="C80" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="3"/>
@@ -2424,7 +2426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
       <c r="A150" s="3"/>
       <c r="B150" s="3" t="s">
         <v>146</v>
@@ -2433,7 +2435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
         <v>147</v>
@@ -2442,84 +2444,84 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="24.75">
       <c r="A152" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
       <c r="A153" s="3"/>
       <c r="B153" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C153" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
       <c r="A154" s="3"/>
       <c r="B154" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C154" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
       <c r="A155" s="3"/>
       <c r="B155" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C155" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C156" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C157" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
       <c r="A158" s="3"/>
       <c r="B158" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C158" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
       <c r="A159" s="3"/>
       <c r="B159" s="3" t="s">
         <v>155</v>
       </c>
       <c r="C159" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
       <c r="A160" s="3"/>
       <c r="B160" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C160" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C161" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="24.75">
       <c r="A162" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
         <v>159</v>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1922,21 +1922,27 @@
       <c r="B81" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C81" s="3"/>
+      <c r="C81" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C82" s="3"/>
+      <c r="C82" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1949,14 +1949,18 @@
       <c r="B84" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="3"/>
+      <c r="C84" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="3"/>
+      <c r="C85" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f5277f211c7413a/Desktop/Node.js-Interview-CheckList/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_6E6019A4F983E6E14C696E28FF4A8FCE9D4EF9A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7594971-F7F9-4988-AA1F-DAB942A2F896}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Node.js Interview Full CheckLis"/>
+    <sheet name="Node.js Interview Full CheckLis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -814,8 +820,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -847,7 +852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -879,28 +884,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -911,10 +919,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -952,71 +960,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1044,7 +1052,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1067,11 +1075,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1080,13 +1088,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1096,7 +1104,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1105,7 +1113,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1114,7 +1122,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1122,10 +1130,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1190,22 +1198,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C272"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85:C103"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="42.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="45.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="42.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
+    <row r="1" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1216,14 +1226,14 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
+    <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -1232,7 +1242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -1241,7 +1251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -1250,7 +1260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>8</v>
@@ -1259,7 +1269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -1268,7 +1278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>10</v>
@@ -1277,7 +1287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -1286,7 +1296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -1295,7 +1305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
@@ -1304,7 +1314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>14</v>
@@ -1313,7 +1323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>15</v>
@@ -1322,7 +1332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>16</v>
@@ -1331,7 +1341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>17</v>
@@ -1340,7 +1350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>18</v>
@@ -1349,7 +1359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>19</v>
@@ -1358,7 +1368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>20</v>
@@ -1367,7 +1377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>21</v>
@@ -1376,14 +1386,14 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
+    <row r="20" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>23</v>
@@ -1392,7 +1402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>24</v>
@@ -1401,7 +1411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>25</v>
@@ -1410,7 +1420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>26</v>
@@ -1419,7 +1429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>27</v>
@@ -1428,7 +1438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
@@ -1437,7 +1447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>29</v>
@@ -1446,7 +1456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
@@ -1455,7 +1465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>31</v>
@@ -1464,7 +1474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>32</v>
@@ -1473,7 +1483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>33</v>
@@ -1482,7 +1492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>34</v>
@@ -1491,7 +1501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>35</v>
@@ -1500,7 +1510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>36</v>
@@ -1509,7 +1519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>37</v>
@@ -1518,7 +1528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>38</v>
@@ -1527,7 +1537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>39</v>
@@ -1536,7 +1546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+    <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>40</v>
@@ -1545,14 +1555,14 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
+    <row r="39" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+    <row r="40" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>42</v>
@@ -1561,7 +1571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+    <row r="41" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>43</v>
@@ -1570,7 +1580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+    <row r="42" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>44</v>
@@ -1579,7 +1589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+    <row r="43" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>45</v>
@@ -1588,7 +1598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+    <row r="44" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>46</v>
@@ -1597,7 +1607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+    <row r="45" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>47</v>
@@ -1606,7 +1616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+    <row r="46" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>48</v>
@@ -1615,7 +1625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+    <row r="47" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>49</v>
@@ -1624,7 +1634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+    <row r="48" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>50</v>
@@ -1633,7 +1643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>51</v>
@@ -1642,7 +1652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+    <row r="50" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -1651,7 +1661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+    <row r="51" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
         <v>53</v>
@@ -1660,7 +1670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+    <row r="52" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>54</v>
@@ -1669,7 +1679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+    <row r="53" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>55</v>
@@ -1678,14 +1688,14 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="24.75">
+    <row r="54" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
         <v>57</v>
@@ -1694,7 +1704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
         <v>58</v>
@@ -1703,7 +1713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>59</v>
@@ -1712,7 +1722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
         <v>60</v>
@@ -1721,7 +1731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
         <v>61</v>
@@ -1730,7 +1740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>62</v>
@@ -1739,7 +1749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>63</v>
@@ -1748,7 +1758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
         <v>64</v>
@@ -1757,7 +1767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
         <v>65</v>
@@ -1766,7 +1776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
         <v>66</v>
@@ -1775,7 +1785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>67</v>
@@ -1784,7 +1794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
         <v>68</v>
@@ -1793,7 +1803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
         <v>69</v>
@@ -1802,7 +1812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
         <v>70</v>
@@ -1811,7 +1821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>71</v>
@@ -1820,7 +1830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
         <v>72</v>
@@ -1829,7 +1839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
         <v>73</v>
@@ -1838,7 +1848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>74</v>
@@ -1847,7 +1857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
         <v>75</v>
@@ -1856,7 +1866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
         <v>76</v>
@@ -1865,7 +1875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
         <v>77</v>
@@ -1874,7 +1884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
         <v>78</v>
@@ -1883,7 +1893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
         <v>79</v>
@@ -1892,7 +1902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
         <v>80</v>
@@ -1901,14 +1911,14 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
         <v>82</v>
@@ -1917,7 +1927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
         <v>66</v>
@@ -1926,7 +1936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
         <v>67</v>
@@ -1935,7 +1945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>65</v>
@@ -1944,7 +1954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
         <v>83</v>
@@ -1953,7 +1963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
         <v>84</v>
@@ -1962,364 +1972,400 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+      <c r="C86" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+      <c r="C87" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C88" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+      <c r="C88" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+      <c r="C89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C90" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+      <c r="C90" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+      <c r="C91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+      <c r="C92" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+      <c r="C93" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+      <c r="C94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+      <c r="C95" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+      <c r="C96" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+      <c r="C97" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+      <c r="C98" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C99" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+      <c r="C99" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C100" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+      <c r="C100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+      <c r="C101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+      <c r="C102" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+      <c r="C103" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C105" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C106" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C107" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C108" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row r="109" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C109" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C110" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row r="111" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C111" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row r="112" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C112" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row r="113" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C113" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row r="114" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C114" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+    <row r="115" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C115" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    <row r="116" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C116" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    <row r="117" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C117" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+    <row r="118" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C118" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    <row r="119" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C119" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+    <row r="120" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C120" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+    <row r="121" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C121" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+    <row r="122" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C122" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+    <row r="123" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C123" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+    <row r="124" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C124" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    <row r="125" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+    <row r="126" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C126" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    <row r="127" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C127" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+    <row r="128" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C128" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+    <row r="129" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C129" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+    <row r="130" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C130" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
+    <row r="131" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C131" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
+    <row r="132" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C132" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
+    <row r="133" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C133" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
+    <row r="134" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C134" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
+    <row r="135" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C135" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="24.75">
+    <row r="136" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
+    <row r="137" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
         <v>134</v>
@@ -2328,7 +2374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
+    <row r="138" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
         <v>135</v>
@@ -2337,7 +2383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
+    <row r="139" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
         <v>136</v>
@@ -2346,7 +2392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
+    <row r="140" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
         <v>137</v>
@@ -2355,7 +2401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
+    <row r="141" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
         <v>138</v>
@@ -2364,7 +2410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
+    <row r="142" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
         <v>139</v>
@@ -2373,7 +2419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
+    <row r="143" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
         <v>140</v>
@@ -2382,7 +2428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
+    <row r="144" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3" t="s">
         <v>30</v>
@@ -2391,7 +2437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
+    <row r="145" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
         <v>141</v>
@@ -2400,7 +2446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+    <row r="146" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3" t="s">
         <v>142</v>
@@ -2409,7 +2455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+    <row r="147" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3" t="s">
         <v>143</v>
@@ -2418,7 +2464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+    <row r="148" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3" t="s">
         <v>144</v>
@@ -2427,7 +2473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+    <row r="149" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3" t="s">
         <v>145</v>
@@ -2436,7 +2482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
+    <row r="150" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3" t="s">
         <v>146</v>
@@ -2445,7 +2491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
+    <row r="151" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
         <v>147</v>
@@ -2454,847 +2500,847 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="24.75">
+    <row r="152" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
+    <row r="153" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C153" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
+    <row r="154" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C154" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
+    <row r="155" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C155" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5">
+    <row r="156" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C156" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5">
+    <row r="157" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C157" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
+    <row r="158" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C158" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
+    <row r="159" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3" t="s">
         <v>155</v>
       </c>
       <c r="C159" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
+    <row r="160" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C160" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
+    <row r="161" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C161" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="24.75">
+    <row r="162" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
+    <row r="163" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C163" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+    <row r="164" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C164" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+    <row r="165" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C165" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+    <row r="166" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C166" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+    <row r="167" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3" t="s">
         <v>163</v>
       </c>
       <c r="C167" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+    <row r="168" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
         <v>164</v>
       </c>
       <c r="C168" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+    <row r="169" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C169" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+    <row r="170" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C170" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+    <row r="171" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C171" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+    <row r="172" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C172" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+    <row r="173" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C173" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+    <row r="174" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C174" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+    <row r="175" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C175" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+    <row r="176" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3" t="s">
         <v>172</v>
       </c>
       <c r="C176" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+    <row r="177" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C177" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+    <row r="178" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C178" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+    <row r="179" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
         <v>175</v>
       </c>
       <c r="C179" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+    <row r="180" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
         <v>176</v>
       </c>
       <c r="C180" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+    <row r="181" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="s">
         <v>177</v>
       </c>
       <c r="C181" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+    <row r="182" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C182" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+    <row r="183" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
         <v>179</v>
       </c>
       <c r="C183" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+    <row r="184" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+    <row r="185" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C185" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+    <row r="186" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C186" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+    <row r="187" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C187" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+    <row r="188" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C188" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+    <row r="189" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3" t="s">
         <v>185</v>
       </c>
       <c r="C189" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+    <row r="190" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3" t="s">
         <v>186</v>
       </c>
       <c r="C190" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+    <row r="191" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3" t="s">
         <v>187</v>
       </c>
       <c r="C191" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
+    <row r="192" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C192" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+    <row r="193" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C193" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+    <row r="194" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3" t="s">
         <v>190</v>
       </c>
       <c r="C194" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+    <row r="195" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C195" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+    <row r="196" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3" t="s">
         <v>192</v>
       </c>
       <c r="C196" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+    <row r="197" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3" t="s">
         <v>193</v>
       </c>
       <c r="C197" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
+    <row r="198" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C198" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
+    <row r="199" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3" t="s">
         <v>195</v>
       </c>
       <c r="C199" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
+    <row r="200" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
+    <row r="201" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C201" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
+    <row r="202" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3" t="s">
         <v>198</v>
       </c>
       <c r="C202" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
+    <row r="203" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3" t="s">
         <v>199</v>
       </c>
       <c r="C203" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
+    <row r="204" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3" t="s">
         <v>200</v>
       </c>
       <c r="C204" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
+    <row r="205" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3" t="s">
         <v>201</v>
       </c>
       <c r="C205" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
+    <row r="206" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3" t="s">
         <v>202</v>
       </c>
       <c r="C206" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
+    <row r="207" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3" t="s">
         <v>203</v>
       </c>
       <c r="C207" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
+    <row r="208" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3" t="s">
         <v>204</v>
       </c>
       <c r="C208" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
+    <row r="209" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3" t="s">
         <v>205</v>
       </c>
       <c r="C209" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
+    <row r="210" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C210" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
+    <row r="211" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3" t="s">
         <v>207</v>
       </c>
       <c r="C211" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
+    <row r="212" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C212" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
+    <row r="213" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
+    <row r="214" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3" t="s">
         <v>210</v>
       </c>
       <c r="C214" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
+    <row r="215" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3" t="s">
         <v>211</v>
       </c>
       <c r="C215" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
+    <row r="216" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3" t="s">
         <v>212</v>
       </c>
       <c r="C216" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
+    <row r="217" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3" t="s">
         <v>213</v>
       </c>
       <c r="C217" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
+    <row r="218" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3" t="s">
         <v>214</v>
       </c>
       <c r="C218" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
+    <row r="219" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
+    <row r="220" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C220" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
+    <row r="221" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3" t="s">
         <v>217</v>
       </c>
       <c r="C221" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
+    <row r="222" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3" t="s">
         <v>218</v>
       </c>
       <c r="C222" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
+    <row r="223" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C223" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
+    <row r="224" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C224" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
+    <row r="225" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3" t="s">
         <v>221</v>
       </c>
       <c r="C225" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
+    <row r="226" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C226" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
+    <row r="227" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
+    <row r="228" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C228" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
+    <row r="229" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C229" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
+    <row r="230" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C230" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
+    <row r="231" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3" t="s">
         <v>227</v>
       </c>
       <c r="C231" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
+    <row r="232" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C232" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
+    <row r="233" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="3" t="s">
         <v>229</v>
       </c>
       <c r="C233" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
+    <row r="234" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C234" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
+    <row r="235" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
+    <row r="236" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3" t="s">
         <v>232</v>
       </c>
       <c r="C236" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
+    <row r="237" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C237" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
+    <row r="238" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3" t="s">
         <v>234</v>
       </c>
       <c r="C238" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
+    <row r="239" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3" t="s">
         <v>235</v>
       </c>
       <c r="C239" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
+    <row r="240" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C240" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
+    <row r="241" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>237</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
+    <row r="242" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3" t="s">
         <v>238</v>
       </c>
       <c r="C242" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
+    <row r="243" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C243" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
+    <row r="244" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C244" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
+    <row r="245" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3" t="s">
         <v>241</v>
       </c>
       <c r="C245" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
+    <row r="246" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3" t="s">
         <v>242</v>
       </c>
       <c r="C246" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
+    <row r="247" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C247" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
+    <row r="248" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3" t="s">
         <v>244</v>
       </c>
       <c r="C248" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
+    <row r="249" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3" t="s">
         <v>245</v>
       </c>
       <c r="C249" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
+    <row r="250" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3" t="s">
         <v>246</v>
       </c>
       <c r="C250" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
+    <row r="251" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3" t="s">
         <v>247</v>
       </c>
       <c r="C251" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
+    <row r="252" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C252" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
+    <row r="253" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C253" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
+    <row r="254" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C254" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
+    <row r="255" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3" t="s">
         <v>249</v>
       </c>
       <c r="C255" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
+    <row r="256" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3" t="s">
         <v>250</v>
       </c>
       <c r="C256" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
+    <row r="257" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3" t="s">
         <v>251</v>
       </c>
       <c r="C257" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
+    <row r="258" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C258" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
+    <row r="259" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="3" t="s">
         <v>253</v>
       </c>
       <c r="C259" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
+    <row r="260" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C260" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
+    <row r="261" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3" t="s">
         <v>255</v>
       </c>
       <c r="C261" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
+    <row r="262" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3" t="s">
         <v>256</v>
       </c>
       <c r="C262" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
+    <row r="263" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="3" t="s">
         <v>257</v>
       </c>
       <c r="C263" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
+    <row r="264" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3" t="s">
         <v>258</v>
       </c>
       <c r="C264" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
+    <row r="265" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C265" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
+    <row r="266" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3" t="s">
         <v>260</v>
       </c>
       <c r="C266" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
+    <row r="267" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="3" t="s">
         <v>261</v>
       </c>
       <c r="C267" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
+    <row r="268" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C268" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
+    <row r="269" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3" t="s">
         <v>175</v>
       </c>
       <c r="C269" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
+    <row r="270" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C270" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
+    <row r="271" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3" t="s">
         <v>263</v>
       </c>
       <c r="C271" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
+    <row r="272" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="3" t="s">
         <v>264</v>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f5277f211c7413a/Desktop/Node.js-Interview-CheckList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_6E6019A4F983E6E14C696E28FF4A8FCE9D4EF9A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7594971-F7F9-4988-AA1F-DAB942A2F896}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_6E6019A4F983E6E14C696E28FF4A8FCE9D4EF9A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1BEB396-B1C7-440D-A27B-9A3ABB070AC0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1204,8 +1204,8 @@
   </sheetPr>
   <dimension ref="A1:C272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85:C103"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2146,140 +2146,180 @@
       <c r="B105" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="3"/>
+      <c r="C105" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="106" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C106" s="3"/>
+      <c r="C106" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="107" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="3"/>
+      <c r="C107" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="108" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C108" s="3"/>
+      <c r="C108" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="109" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="3"/>
+      <c r="C109" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="110" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="3"/>
+      <c r="C110" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="111" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C111" s="3"/>
+      <c r="C111" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="112" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C112" s="3"/>
+      <c r="C112" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="113" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="3"/>
+      <c r="C113" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="114" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C114" s="3"/>
+      <c r="C114" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="115" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C115" s="3"/>
+      <c r="C115" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="116" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="3"/>
+      <c r="C116" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="117" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C117" s="3"/>
+      <c r="C117" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="118" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C118" s="3"/>
+      <c r="C118" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="119" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C119" s="3"/>
+      <c r="C119" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="120" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C120" s="3"/>
+      <c r="C120" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="121" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C121" s="3"/>
+      <c r="C121" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="122" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C122" s="3"/>
+      <c r="C122" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="123" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C123" s="3"/>
+      <c r="C123" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="124" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C124" s="3"/>
+      <c r="C124" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="125" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -1204,8 +1204,8 @@
   </sheetPr>
   <dimension ref="A1:C272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f5277f211c7413a/Desktop/Node.js-Interview-CheckList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_6E6019A4F983E6E14C696E28FF4A8FCE9D4EF9A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1BEB396-B1C7-440D-A27B-9A3ABB070AC0}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_6E6019A4F983E6E14C696E28FF4A8FCE9D4EF9A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8D301C8-B3F9-4725-A63C-DB0E61497646}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -1204,8 +1204,8 @@
   </sheetPr>
   <dimension ref="A1:C272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,70 +2333,90 @@
       <c r="B126" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C126" s="3"/>
+      <c r="C126" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="127" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C127" s="3"/>
+      <c r="C127" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="128" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C128" s="3"/>
+      <c r="C128" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="129" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C129" s="3"/>
+      <c r="C129" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="130" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C130" s="3"/>
+      <c r="C130" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="131" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C131" s="3"/>
+      <c r="C131" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="132" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C132" s="3"/>
+      <c r="C132" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="133" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="3"/>
+      <c r="C133" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="134" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C134" s="3"/>
+      <c r="C134" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="135" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C135" s="3"/>
+      <c r="C135" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="136" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f5277f211c7413a/Desktop/Node.js-Interview-CheckList/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_6E6019A4F983E6E14C696E28FF4A8FCE9D4EF9A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8D301C8-B3F9-4725-A63C-DB0E61497646}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Node.js Interview Full CheckLis" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Node.js Interview Full CheckLis"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -820,7 +814,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -852,7 +847,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFffff00"/>
       </patternFill>
     </fill>
   </fills>
@@ -884,31 +879,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -919,10 +911,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -960,71 +952,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1052,7 +1044,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1075,11 +1067,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1088,13 +1080,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1104,7 +1096,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1113,7 +1105,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1122,7 +1114,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1130,10 +1122,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1198,24 +1190,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="F124" sqref="F124"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="4" width="42.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="45.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1226,14 +1216,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -1242,7 +1232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -1251,7 +1241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -1260,7 +1250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>8</v>
@@ -1269,7 +1259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -1278,7 +1268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>10</v>
@@ -1287,7 +1277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -1296,7 +1286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -1305,7 +1295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
@@ -1314,7 +1304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>14</v>
@@ -1323,7 +1313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>15</v>
@@ -1332,7 +1322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>16</v>
@@ -1341,7 +1331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>17</v>
@@ -1350,7 +1340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>18</v>
@@ -1359,7 +1349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>19</v>
@@ -1368,7 +1358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>20</v>
@@ -1377,7 +1367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>21</v>
@@ -1386,14 +1376,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>23</v>
@@ -1402,7 +1392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>24</v>
@@ -1411,7 +1401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>25</v>
@@ -1420,7 +1410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>26</v>
@@ -1429,7 +1419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>27</v>
@@ -1438,7 +1428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
@@ -1447,7 +1437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>29</v>
@@ -1456,7 +1446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
@@ -1465,7 +1455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>31</v>
@@ -1474,7 +1464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>32</v>
@@ -1483,7 +1473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>33</v>
@@ -1492,7 +1482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>34</v>
@@ -1501,7 +1491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>35</v>
@@ -1510,7 +1500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>36</v>
@@ -1519,7 +1509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>37</v>
@@ -1528,7 +1518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>38</v>
@@ -1537,7 +1527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>39</v>
@@ -1546,7 +1536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>40</v>
@@ -1555,14 +1545,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>42</v>
@@ -1571,7 +1561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>43</v>
@@ -1580,7 +1570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>44</v>
@@ -1589,7 +1579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>45</v>
@@ -1598,7 +1588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>46</v>
@@ -1607,7 +1597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>47</v>
@@ -1616,7 +1606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>48</v>
@@ -1625,7 +1615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>49</v>
@@ -1634,7 +1624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>50</v>
@@ -1643,7 +1633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>51</v>
@@ -1652,7 +1642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -1661,7 +1651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
         <v>53</v>
@@ -1670,7 +1660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>54</v>
@@ -1679,7 +1669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>55</v>
@@ -1688,14 +1678,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="24.75">
       <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
         <v>57</v>
@@ -1704,7 +1694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
         <v>58</v>
@@ -1713,7 +1703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>59</v>
@@ -1722,7 +1712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
         <v>60</v>
@@ -1731,7 +1721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
         <v>61</v>
@@ -1740,7 +1730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>62</v>
@@ -1749,7 +1739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>63</v>
@@ -1758,7 +1748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
         <v>64</v>
@@ -1767,7 +1757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
         <v>65</v>
@@ -1776,7 +1766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
         <v>66</v>
@@ -1785,7 +1775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>67</v>
@@ -1794,7 +1784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
         <v>68</v>
@@ -1803,7 +1793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
         <v>69</v>
@@ -1812,7 +1802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
         <v>70</v>
@@ -1821,7 +1811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>71</v>
@@ -1830,7 +1820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
         <v>72</v>
@@ -1839,7 +1829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
         <v>73</v>
@@ -1848,7 +1838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>74</v>
@@ -1857,7 +1847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
         <v>75</v>
@@ -1866,7 +1856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
         <v>76</v>
@@ -1875,7 +1865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
         <v>77</v>
@@ -1884,7 +1874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
         <v>78</v>
@@ -1893,7 +1883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
         <v>79</v>
@@ -1902,7 +1892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
         <v>80</v>
@@ -1911,14 +1901,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
         <v>82</v>
@@ -1927,7 +1917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
         <v>66</v>
@@ -1936,7 +1926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
         <v>67</v>
@@ -1945,7 +1935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>65</v>
@@ -1954,7 +1944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
         <v>83</v>
@@ -1963,7 +1953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
         <v>84</v>
@@ -1972,7 +1962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
         <v>85</v>
@@ -1981,7 +1971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
         <v>86</v>
@@ -1990,7 +1980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>87</v>
@@ -1999,7 +1989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
         <v>88</v>
@@ -2008,7 +1998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
         <v>73</v>
@@ -2017,7 +2007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
         <v>89</v>
@@ -2026,7 +2016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
         <v>90</v>
@@ -2035,7 +2025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
         <v>91</v>
@@ -2044,7 +2034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
         <v>92</v>
@@ -2053,7 +2043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
         <v>93</v>
@@ -2062,7 +2052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
         <v>94</v>
@@ -2071,7 +2061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
         <v>95</v>
@@ -2080,7 +2070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
         <v>96</v>
@@ -2089,7 +2079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
         <v>97</v>
@@ -2098,7 +2088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
         <v>72</v>
@@ -2107,7 +2097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
         <v>98</v>
@@ -2116,7 +2106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
         <v>99</v>
@@ -2125,7 +2115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
         <v>100</v>
@@ -2134,14 +2124,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
         <v>102</v>
@@ -2150,7 +2140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
         <v>103</v>
@@ -2159,7 +2149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
         <v>104</v>
@@ -2168,7 +2158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
         <v>105</v>
@@ -2177,7 +2167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
         <v>106</v>
@@ -2186,7 +2176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
         <v>107</v>
@@ -2195,7 +2185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
         <v>108</v>
@@ -2204,7 +2194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
         <v>109</v>
@@ -2213,7 +2203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
         <v>110</v>
@@ -2222,7 +2212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
         <v>111</v>
@@ -2231,7 +2221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
         <v>112</v>
@@ -2240,7 +2230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
         <v>113</v>
@@ -2249,7 +2239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
         <v>114</v>
@@ -2258,7 +2248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
         <v>115</v>
@@ -2267,7 +2257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
         <v>116</v>
@@ -2276,7 +2266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
         <v>117</v>
@@ -2285,7 +2275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
         <v>118</v>
@@ -2294,7 +2284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
         <v>119</v>
@@ -2303,7 +2293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
         <v>120</v>
@@ -2312,7 +2302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
         <v>121</v>
@@ -2321,14 +2311,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
         <v>123</v>
@@ -2337,7 +2327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
         <v>124</v>
@@ -2346,7 +2336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
         <v>125</v>
@@ -2355,7 +2345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
         <v>126</v>
@@ -2364,7 +2354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
         <v>127</v>
@@ -2373,7 +2363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
         <v>128</v>
@@ -2382,7 +2372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
         <v>129</v>
@@ -2391,7 +2381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
         <v>130</v>
@@ -2400,7 +2390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
         <v>131</v>
@@ -2409,7 +2399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
         <v>132</v>
@@ -2418,14 +2408,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="24.75">
       <c r="A136" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
     </row>
-    <row r="137" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
         <v>134</v>
@@ -2434,7 +2424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
         <v>135</v>
@@ -2443,7 +2433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
         <v>136</v>
@@ -2452,7 +2442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
         <v>137</v>
@@ -2461,7 +2451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
         <v>138</v>
@@ -2470,7 +2460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
         <v>139</v>
@@ -2479,7 +2469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
         <v>140</v>
@@ -2488,7 +2478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
       <c r="A144" s="3"/>
       <c r="B144" s="3" t="s">
         <v>30</v>
@@ -2497,7 +2487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
         <v>141</v>
@@ -2506,7 +2496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="3"/>
       <c r="B146" s="3" t="s">
         <v>142</v>
@@ -2515,7 +2505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="3"/>
       <c r="B147" s="3" t="s">
         <v>143</v>
@@ -2524,7 +2514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="3"/>
       <c r="B148" s="3" t="s">
         <v>144</v>
@@ -2533,7 +2523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="3"/>
       <c r="B149" s="3" t="s">
         <v>145</v>
@@ -2542,7 +2532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
       <c r="A150" s="3"/>
       <c r="B150" s="3" t="s">
         <v>146</v>
@@ -2551,7 +2541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
         <v>147</v>
@@ -2560,847 +2550,889 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="24.75">
       <c r="A152" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
     </row>
-    <row r="153" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
       <c r="A153" s="3"/>
       <c r="B153" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C153" s="3"/>
     </row>
-    <row r="154" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
       <c r="A154" s="3"/>
       <c r="B154" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C154" s="3"/>
     </row>
-    <row r="155" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
       <c r="A155" s="3"/>
       <c r="B155" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C155" s="3"/>
     </row>
-    <row r="156" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C156" s="3"/>
     </row>
-    <row r="157" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C157" s="3"/>
     </row>
-    <row r="158" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
       <c r="A158" s="3"/>
       <c r="B158" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C158" s="3"/>
     </row>
-    <row r="159" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
       <c r="A159" s="3"/>
       <c r="B159" s="3" t="s">
         <v>155</v>
       </c>
       <c r="C159" s="3"/>
     </row>
-    <row r="160" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
       <c r="A160" s="3"/>
       <c r="B160" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C160" s="3"/>
     </row>
-    <row r="161" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C161" s="3"/>
     </row>
-    <row r="162" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="24.75">
       <c r="A162" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
     </row>
-    <row r="163" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C163" s="3"/>
-    </row>
-    <row r="164" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C163" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="3"/>
       <c r="B164" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C164" s="3"/>
-    </row>
-    <row r="165" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C164" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="3"/>
       <c r="B165" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C165" s="3"/>
-    </row>
-    <row r="166" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C165" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C166" s="3"/>
-    </row>
-    <row r="167" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C166" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="3"/>
       <c r="B167" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C167" s="3"/>
-    </row>
-    <row r="168" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C167" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C168" s="3"/>
-    </row>
-    <row r="169" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C168" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="3"/>
       <c r="B169" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C169" s="3"/>
-    </row>
-    <row r="170" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C169" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="3"/>
       <c r="B170" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C170" s="3"/>
-    </row>
-    <row r="171" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C170" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C171" s="3"/>
-    </row>
-    <row r="172" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C171" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="3"/>
       <c r="B172" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C172" s="3"/>
-    </row>
-    <row r="173" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C172" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="3"/>
       <c r="B173" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C173" s="3"/>
-    </row>
-    <row r="174" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C173" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C174" s="3"/>
-    </row>
-    <row r="175" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C174" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C175" s="3"/>
-    </row>
-    <row r="176" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C175" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="3"/>
       <c r="B176" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C176" s="3"/>
-    </row>
-    <row r="177" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C176" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C177" s="3"/>
-    </row>
-    <row r="178" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C177" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C178" s="3"/>
-    </row>
-    <row r="179" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C178" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C179" s="3"/>
-    </row>
-    <row r="180" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C179" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C180" s="3"/>
-    </row>
-    <row r="181" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C180" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C181" s="3"/>
-    </row>
-    <row r="182" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C181" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="3"/>
       <c r="B182" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C182" s="3"/>
-    </row>
-    <row r="183" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C182" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C183" s="3"/>
-    </row>
-    <row r="184" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C183" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="24.75">
       <c r="A184" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
     </row>
-    <row r="185" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
       <c r="A185" s="3"/>
       <c r="B185" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C185" s="3"/>
     </row>
-    <row r="186" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
       <c r="A186" s="3"/>
       <c r="B186" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C186" s="3"/>
     </row>
-    <row r="187" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5">
       <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C187" s="3"/>
     </row>
-    <row r="188" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C188" s="3"/>
     </row>
-    <row r="189" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
       <c r="A189" s="3"/>
       <c r="B189" s="3" t="s">
         <v>185</v>
       </c>
       <c r="C189" s="3"/>
     </row>
-    <row r="190" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
       <c r="A190" s="3"/>
       <c r="B190" s="3" t="s">
         <v>186</v>
       </c>
       <c r="C190" s="3"/>
     </row>
-    <row r="191" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
       <c r="A191" s="3"/>
       <c r="B191" s="3" t="s">
         <v>187</v>
       </c>
       <c r="C191" s="3"/>
     </row>
-    <row r="192" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
       <c r="A192" s="3"/>
       <c r="B192" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C192" s="3"/>
     </row>
-    <row r="193" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
       <c r="A193" s="3"/>
       <c r="B193" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C193" s="3"/>
     </row>
-    <row r="194" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
       <c r="A194" s="3"/>
       <c r="B194" s="3" t="s">
         <v>190</v>
       </c>
       <c r="C194" s="3"/>
     </row>
-    <row r="195" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
       <c r="A195" s="3"/>
       <c r="B195" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C195" s="3"/>
     </row>
-    <row r="196" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
       <c r="A196" s="3"/>
       <c r="B196" s="3" t="s">
         <v>192</v>
       </c>
       <c r="C196" s="3"/>
     </row>
-    <row r="197" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="3"/>
       <c r="B197" s="3" t="s">
         <v>193</v>
       </c>
       <c r="C197" s="3"/>
     </row>
-    <row r="198" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C198" s="3"/>
     </row>
-    <row r="199" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="3"/>
       <c r="B199" s="3" t="s">
         <v>195</v>
       </c>
       <c r="C199" s="3"/>
     </row>
-    <row r="200" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
     </row>
-    <row r="201" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="3"/>
       <c r="B201" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C201" s="3"/>
     </row>
-    <row r="202" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="3"/>
       <c r="B202" s="3" t="s">
         <v>198</v>
       </c>
       <c r="C202" s="3"/>
     </row>
-    <row r="203" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="3"/>
       <c r="B203" s="3" t="s">
         <v>199</v>
       </c>
       <c r="C203" s="3"/>
     </row>
-    <row r="204" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="3"/>
       <c r="B204" s="3" t="s">
         <v>200</v>
       </c>
       <c r="C204" s="3"/>
     </row>
-    <row r="205" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="3"/>
       <c r="B205" s="3" t="s">
         <v>201</v>
       </c>
       <c r="C205" s="3"/>
     </row>
-    <row r="206" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="3"/>
       <c r="B206" s="3" t="s">
         <v>202</v>
       </c>
       <c r="C206" s="3"/>
     </row>
-    <row r="207" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="3"/>
       <c r="B207" s="3" t="s">
         <v>203</v>
       </c>
       <c r="C207" s="3"/>
     </row>
-    <row r="208" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="3"/>
       <c r="B208" s="3" t="s">
         <v>204</v>
       </c>
       <c r="C208" s="3"/>
     </row>
-    <row r="209" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="3"/>
       <c r="B209" s="3" t="s">
         <v>205</v>
       </c>
       <c r="C209" s="3"/>
     </row>
-    <row r="210" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="3"/>
       <c r="B210" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C210" s="3"/>
     </row>
-    <row r="211" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="3"/>
       <c r="B211" s="3" t="s">
         <v>207</v>
       </c>
       <c r="C211" s="3"/>
     </row>
-    <row r="212" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="3"/>
       <c r="B212" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C212" s="3"/>
     </row>
-    <row r="213" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
     </row>
-    <row r="214" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="3"/>
       <c r="B214" s="3" t="s">
         <v>210</v>
       </c>
       <c r="C214" s="3"/>
     </row>
-    <row r="215" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="3"/>
       <c r="B215" s="3" t="s">
         <v>211</v>
       </c>
       <c r="C215" s="3"/>
     </row>
-    <row r="216" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="3"/>
       <c r="B216" s="3" t="s">
         <v>212</v>
       </c>
       <c r="C216" s="3"/>
     </row>
-    <row r="217" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="3"/>
       <c r="B217" s="3" t="s">
         <v>213</v>
       </c>
       <c r="C217" s="3"/>
     </row>
-    <row r="218" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="3"/>
       <c r="B218" s="3" t="s">
         <v>214</v>
       </c>
       <c r="C218" s="3"/>
     </row>
-    <row r="219" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
     </row>
-    <row r="220" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="3"/>
       <c r="B220" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C220" s="3"/>
     </row>
-    <row r="221" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="3"/>
       <c r="B221" s="3" t="s">
         <v>217</v>
       </c>
       <c r="C221" s="3"/>
     </row>
-    <row r="222" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="3"/>
       <c r="B222" s="3" t="s">
         <v>218</v>
       </c>
       <c r="C222" s="3"/>
     </row>
-    <row r="223" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="3"/>
       <c r="B223" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C223" s="3"/>
     </row>
-    <row r="224" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="3"/>
       <c r="B224" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C224" s="3"/>
     </row>
-    <row r="225" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="3"/>
       <c r="B225" s="3" t="s">
         <v>221</v>
       </c>
       <c r="C225" s="3"/>
     </row>
-    <row r="226" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="3"/>
       <c r="B226" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C226" s="3"/>
     </row>
-    <row r="227" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
     </row>
-    <row r="228" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="3"/>
       <c r="B228" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C228" s="3"/>
     </row>
-    <row r="229" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="3"/>
       <c r="B229" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C229" s="3"/>
     </row>
-    <row r="230" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="3"/>
       <c r="B230" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C230" s="3"/>
     </row>
-    <row r="231" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="3"/>
       <c r="B231" s="3" t="s">
         <v>227</v>
       </c>
       <c r="C231" s="3"/>
     </row>
-    <row r="232" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="3"/>
       <c r="B232" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C232" s="3"/>
     </row>
-    <row r="233" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="3"/>
       <c r="B233" s="3" t="s">
         <v>229</v>
       </c>
       <c r="C233" s="3"/>
     </row>
-    <row r="234" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="3"/>
       <c r="B234" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C234" s="3"/>
     </row>
-    <row r="235" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
     </row>
-    <row r="236" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="3"/>
       <c r="B236" s="3" t="s">
         <v>232</v>
       </c>
       <c r="C236" s="3"/>
     </row>
-    <row r="237" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="3"/>
       <c r="B237" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C237" s="3"/>
     </row>
-    <row r="238" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="3"/>
       <c r="B238" s="3" t="s">
         <v>234</v>
       </c>
       <c r="C238" s="3"/>
     </row>
-    <row r="239" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="3"/>
       <c r="B239" s="3" t="s">
         <v>235</v>
       </c>
       <c r="C239" s="3"/>
     </row>
-    <row r="240" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="3"/>
       <c r="B240" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C240" s="3"/>
     </row>
-    <row r="241" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="2" t="s">
         <v>237</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
     </row>
-    <row r="242" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="3"/>
       <c r="B242" s="3" t="s">
         <v>238</v>
       </c>
       <c r="C242" s="3"/>
     </row>
-    <row r="243" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="3"/>
       <c r="B243" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C243" s="3"/>
     </row>
-    <row r="244" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="3"/>
       <c r="B244" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C244" s="3"/>
     </row>
-    <row r="245" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="3"/>
       <c r="B245" s="3" t="s">
         <v>241</v>
       </c>
       <c r="C245" s="3"/>
     </row>
-    <row r="246" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="3"/>
       <c r="B246" s="3" t="s">
         <v>242</v>
       </c>
       <c r="C246" s="3"/>
     </row>
-    <row r="247" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="3"/>
       <c r="B247" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C247" s="3"/>
     </row>
-    <row r="248" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="3"/>
       <c r="B248" s="3" t="s">
         <v>244</v>
       </c>
       <c r="C248" s="3"/>
     </row>
-    <row r="249" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="3"/>
       <c r="B249" s="3" t="s">
         <v>245</v>
       </c>
       <c r="C249" s="3"/>
     </row>
-    <row r="250" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
       <c r="A250" s="3"/>
       <c r="B250" s="3" t="s">
         <v>246</v>
       </c>
       <c r="C250" s="3"/>
     </row>
-    <row r="251" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
       <c r="A251" s="3"/>
       <c r="B251" s="3" t="s">
         <v>247</v>
       </c>
       <c r="C251" s="3"/>
     </row>
-    <row r="252" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C252" s="3"/>
     </row>
-    <row r="253" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="3"/>
       <c r="B253" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C253" s="3"/>
     </row>
-    <row r="254" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="3"/>
       <c r="B254" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C254" s="3"/>
     </row>
-    <row r="255" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="3"/>
       <c r="B255" s="3" t="s">
         <v>249</v>
       </c>
       <c r="C255" s="3"/>
     </row>
-    <row r="256" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="3"/>
       <c r="B256" s="3" t="s">
         <v>250</v>
       </c>
       <c r="C256" s="3"/>
     </row>
-    <row r="257" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="3"/>
       <c r="B257" s="3" t="s">
         <v>251</v>
       </c>
       <c r="C257" s="3"/>
     </row>
-    <row r="258" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="3"/>
       <c r="B258" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C258" s="3"/>
     </row>
-    <row r="259" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
       <c r="A259" s="3"/>
       <c r="B259" s="3" t="s">
         <v>253</v>
       </c>
       <c r="C259" s="3"/>
     </row>
-    <row r="260" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
       <c r="A260" s="3"/>
       <c r="B260" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C260" s="3"/>
     </row>
-    <row r="261" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
       <c r="A261" s="3"/>
       <c r="B261" s="3" t="s">
         <v>255</v>
       </c>
       <c r="C261" s="3"/>
     </row>
-    <row r="262" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="3"/>
       <c r="B262" s="3" t="s">
         <v>256</v>
       </c>
       <c r="C262" s="3"/>
     </row>
-    <row r="263" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="3"/>
       <c r="B263" s="3" t="s">
         <v>257</v>
       </c>
       <c r="C263" s="3"/>
     </row>
-    <row r="264" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="3"/>
       <c r="B264" s="3" t="s">
         <v>258</v>
       </c>
       <c r="C264" s="3"/>
     </row>
-    <row r="265" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
       <c r="A265" s="3"/>
       <c r="B265" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C265" s="3"/>
     </row>
-    <row r="266" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="3"/>
       <c r="B266" s="3" t="s">
         <v>260</v>
       </c>
       <c r="C266" s="3"/>
     </row>
-    <row r="267" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="3"/>
       <c r="B267" s="3" t="s">
         <v>261</v>
       </c>
       <c r="C267" s="3"/>
     </row>
-    <row r="268" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
       <c r="A268" s="3"/>
       <c r="B268" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C268" s="3"/>
     </row>
-    <row r="269" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
       <c r="A269" s="3"/>
       <c r="B269" s="3" t="s">
         <v>175</v>
       </c>
       <c r="C269" s="3"/>
     </row>
-    <row r="270" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="3"/>
       <c r="B270" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C270" s="3"/>
     </row>
-    <row r="271" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="3"/>
       <c r="B271" s="3" t="s">
         <v>263</v>
       </c>
       <c r="C271" s="3"/>
     </row>
-    <row r="272" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
       <c r="A272" s="3"/>
       <c r="B272" s="3" t="s">
         <v>264</v>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="270">
   <si>
     <t>Category</t>
   </si>
@@ -641,6 +641,21 @@
   </si>
   <si>
     <t>Population (populate)</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t>Sharding and Replication</t>
+  </si>
+  <si>
+    <t>Primary and secondary Replica sets</t>
+  </si>
+  <si>
+    <t>Schema Migrations</t>
+  </si>
+  <si>
+    <t>Monitor Performance</t>
   </si>
   <si>
     <t>13. Testing</t>
@@ -816,7 +831,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -837,6 +852,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -851,7 +872,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -874,11 +895,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -887,6 +960,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1194,15 +1282,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C272"/>
+  <dimension ref="A1:C277"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="42.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="45.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="42.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="45.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
@@ -2940,132 +3028,156 @@
       <c r="B201" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C201" s="3"/>
+      <c r="C201" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="3"/>
       <c r="B202" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C202" s="3"/>
+      <c r="C202" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="3"/>
       <c r="B203" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C203" s="3"/>
+      <c r="C203" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="3"/>
       <c r="B204" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C204" s="3"/>
+      <c r="C204" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="3"/>
       <c r="B205" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C205" s="3"/>
+      <c r="C205" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="3"/>
       <c r="B206" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C206" s="3"/>
+      <c r="C206" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="3"/>
       <c r="B207" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C207" s="3"/>
+      <c r="C207" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="3"/>
       <c r="B208" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C208" s="3"/>
+      <c r="C208" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="3"/>
       <c r="B209" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C209" s="3"/>
+      <c r="C209" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="3"/>
       <c r="B210" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C210" s="3"/>
+      <c r="C210" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="3"/>
       <c r="B211" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C211" s="3"/>
+      <c r="C211" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="3"/>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C212" s="3"/>
+      <c r="C212" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
-      <c r="A213" s="2" t="s">
+      <c r="A213" s="5"/>
+      <c r="B213" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
+      <c r="C213" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
-      <c r="A214" s="3"/>
+      <c r="A214" s="5"/>
       <c r="B214" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C214" s="3"/>
+      <c r="C214" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
-      <c r="A215" s="3"/>
+      <c r="A215" s="5"/>
       <c r="B215" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C215" s="3"/>
+      <c r="C215" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
-      <c r="A216" s="3"/>
-      <c r="B216" s="3" t="s">
+      <c r="A216" s="5"/>
+      <c r="B216" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C216" s="3"/>
+      <c r="C216" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
-      <c r="A217" s="3"/>
-      <c r="B217" s="3" t="s">
+      <c r="A217" s="5"/>
+      <c r="B217" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C217" s="3"/>
+      <c r="C217" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
-      <c r="A218" s="3"/>
-      <c r="B218" s="3" t="s">
+      <c r="A218" s="2" t="s">
         <v>214</v>
       </c>
+      <c r="B218" s="8"/>
       <c r="C218" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
-      <c r="A219" s="2" t="s">
+      <c r="A219" s="3"/>
+      <c r="B219" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B219" s="3"/>
       <c r="C219" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
@@ -3097,10 +3209,10 @@
       <c r="C223" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
-      <c r="A224" s="3"/>
-      <c r="B224" s="3" t="s">
+      <c r="A224" s="2" t="s">
         <v>220</v>
       </c>
+      <c r="B224" s="3"/>
       <c r="C224" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
@@ -3118,10 +3230,10 @@
       <c r="C226" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
-      <c r="A227" s="2" t="s">
+      <c r="A227" s="3"/>
+      <c r="B227" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B227" s="3"/>
       <c r="C227" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
@@ -3153,10 +3265,10 @@
       <c r="C231" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
-      <c r="A232" s="3"/>
-      <c r="B232" s="3" t="s">
+      <c r="A232" s="2" t="s">
         <v>228</v>
       </c>
+      <c r="B232" s="3"/>
       <c r="C232" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
@@ -3174,10 +3286,10 @@
       <c r="C234" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
-      <c r="A235" s="2" t="s">
+      <c r="A235" s="3"/>
+      <c r="B235" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B235" s="3"/>
       <c r="C235" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
@@ -3209,17 +3321,17 @@
       <c r="C239" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
-      <c r="A240" s="3"/>
-      <c r="B240" s="3" t="s">
+      <c r="A240" s="2" t="s">
         <v>236</v>
       </c>
+      <c r="B240" s="3"/>
       <c r="C240" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
-      <c r="A241" s="2" t="s">
+      <c r="A241" s="3"/>
+      <c r="B241" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B241" s="3"/>
       <c r="C241" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
@@ -3251,10 +3363,10 @@
       <c r="C245" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
-      <c r="A246" s="3"/>
-      <c r="B246" s="3" t="s">
+      <c r="A246" s="2" t="s">
         <v>242</v>
       </c>
+      <c r="B246" s="3"/>
       <c r="C246" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
@@ -3295,49 +3407,49 @@
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="C252" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="3"/>
       <c r="B253" s="3" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="C253" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="3"/>
       <c r="B254" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C254" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="3"/>
       <c r="B255" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C255" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="3"/>
       <c r="B256" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C256" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="3"/>
       <c r="B257" s="3" t="s">
-        <v>251</v>
+        <v>156</v>
       </c>
       <c r="C257" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="3"/>
       <c r="B258" s="3" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="C258" s="3"/>
     </row>
@@ -3414,30 +3526,65 @@
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
       <c r="A269" s="3"/>
       <c r="B269" s="3" t="s">
-        <v>175</v>
+        <v>263</v>
       </c>
       <c r="C269" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="3"/>
       <c r="B270" s="3" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="C270" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="3"/>
       <c r="B271" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C271" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
       <c r="A272" s="3"/>
       <c r="B272" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C272" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
+      <c r="A273" s="3"/>
+      <c r="B273" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C273" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
+      <c r="A274" s="3"/>
+      <c r="B274" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C274" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
+      <c r="A275" s="3"/>
+      <c r="B275" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C275" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
+      <c r="A276" s="3"/>
+      <c r="B276" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C276" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
+      <c r="A277" s="3"/>
+      <c r="B277" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C277" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -646,7 +646,7 @@
     <t>Transactions</t>
   </si>
   <si>
-    <t>Sharding and Replication</t>
+    <t>Sharding</t>
   </si>
   <si>
     <t>Primary and secondary Replica sets</t>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f5277f211c7413a/Desktop/DOCUMENTS/Node.js-Interview-CheckList/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_17705ABC0A1BE16A4595A18BEE4A8FCE9D4FE8BE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23848A7E-482F-4CDE-AB5A-59B9349EB0ED}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Node.js Interview Full CheckLis"/>
+    <sheet name="Node.js Interview Full CheckLis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="271">
   <si>
     <t>Category</t>
   </si>
@@ -824,13 +830,15 @@
   </si>
   <si>
     <t>os.totalmem()</t>
+  </si>
+  <si>
+    <t>Horizontal vs Vertical scalling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -868,7 +876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -952,43 +960,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -999,10 +1010,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -1040,71 +1051,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1132,7 +1143,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1155,11 +1166,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1168,13 +1179,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1184,7 +1195,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1193,7 +1204,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1202,7 +1213,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1210,10 +1221,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1278,22 +1289,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C277"/>
+  <dimension ref="A1:C278"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="D217" sqref="D217"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="42.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="45.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="42.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
+    <row r="1" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1304,14 +1317,14 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
+    <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -1320,7 +1333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -1329,7 +1342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -1338,7 +1351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>8</v>
@@ -1347,7 +1360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -1356,7 +1369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>10</v>
@@ -1365,7 +1378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -1374,7 +1387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -1383,7 +1396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
@@ -1392,7 +1405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>14</v>
@@ -1401,7 +1414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>15</v>
@@ -1410,7 +1423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>16</v>
@@ -1419,7 +1432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>17</v>
@@ -1428,7 +1441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>18</v>
@@ -1437,7 +1450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>19</v>
@@ -1446,7 +1459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>20</v>
@@ -1455,7 +1468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>21</v>
@@ -1464,14 +1477,14 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
+    <row r="20" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>23</v>
@@ -1480,7 +1493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>24</v>
@@ -1489,7 +1502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>25</v>
@@ -1498,7 +1511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>26</v>
@@ -1507,7 +1520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>27</v>
@@ -1516,7 +1529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
@@ -1525,7 +1538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>29</v>
@@ -1534,7 +1547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
@@ -1543,7 +1556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>31</v>
@@ -1552,7 +1565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>32</v>
@@ -1561,7 +1574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>33</v>
@@ -1570,7 +1583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>34</v>
@@ -1579,7 +1592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>35</v>
@@ -1588,7 +1601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>36</v>
@@ -1597,7 +1610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>37</v>
@@ -1606,7 +1619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>38</v>
@@ -1615,7 +1628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>39</v>
@@ -1624,7 +1637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+    <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>40</v>
@@ -1633,14 +1646,14 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.75">
+    <row r="39" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+    <row r="40" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>42</v>
@@ -1649,7 +1662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+    <row r="41" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>43</v>
@@ -1658,7 +1671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+    <row r="42" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>44</v>
@@ -1667,7 +1680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+    <row r="43" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>45</v>
@@ -1676,7 +1689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+    <row r="44" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>46</v>
@@ -1685,7 +1698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+    <row r="45" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>47</v>
@@ -1694,7 +1707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+    <row r="46" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>48</v>
@@ -1703,7 +1716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+    <row r="47" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>49</v>
@@ -1712,7 +1725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+    <row r="48" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>50</v>
@@ -1721,7 +1734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>51</v>
@@ -1730,7 +1743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+    <row r="50" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -1739,7 +1752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+    <row r="51" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
         <v>53</v>
@@ -1748,7 +1761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+    <row r="52" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>54</v>
@@ -1757,7 +1770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+    <row r="53" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>55</v>
@@ -1766,14 +1779,14 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="24.75">
+    <row r="54" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
         <v>57</v>
@@ -1782,7 +1795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
         <v>58</v>
@@ -1791,7 +1804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>59</v>
@@ -1800,7 +1813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
         <v>60</v>
@@ -1809,7 +1822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
         <v>61</v>
@@ -1818,7 +1831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>62</v>
@@ -1827,7 +1840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>63</v>
@@ -1836,7 +1849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
         <v>64</v>
@@ -1845,7 +1858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
         <v>65</v>
@@ -1854,7 +1867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
         <v>66</v>
@@ -1863,7 +1876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>67</v>
@@ -1872,7 +1885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
         <v>68</v>
@@ -1881,7 +1894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
         <v>69</v>
@@ -1890,7 +1903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
         <v>70</v>
@@ -1899,7 +1912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>71</v>
@@ -1908,7 +1921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
         <v>72</v>
@@ -1917,7 +1930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
         <v>73</v>
@@ -1926,7 +1939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>74</v>
@@ -1935,7 +1948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
         <v>75</v>
@@ -1944,7 +1957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
         <v>76</v>
@@ -1953,7 +1966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
         <v>77</v>
@@ -1962,7 +1975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
         <v>78</v>
@@ -1971,7 +1984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
         <v>79</v>
@@ -1980,7 +1993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
         <v>80</v>
@@ -1989,14 +2002,14 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
         <v>82</v>
@@ -2005,7 +2018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
         <v>66</v>
@@ -2014,7 +2027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
         <v>67</v>
@@ -2023,7 +2036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>65</v>
@@ -2032,7 +2045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
         <v>83</v>
@@ -2041,7 +2054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
         <v>84</v>
@@ -2050,7 +2063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
         <v>85</v>
@@ -2059,7 +2072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
         <v>86</v>
@@ -2068,7 +2081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>87</v>
@@ -2077,7 +2090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
         <v>88</v>
@@ -2086,7 +2099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row r="90" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
         <v>73</v>
@@ -2095,7 +2108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
         <v>89</v>
@@ -2104,7 +2117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row r="92" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
         <v>90</v>
@@ -2113,7 +2126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row r="93" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
         <v>91</v>
@@ -2122,7 +2135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row r="94" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
         <v>92</v>
@@ -2131,7 +2144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row r="95" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
         <v>93</v>
@@ -2140,7 +2153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row r="96" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
         <v>94</v>
@@ -2149,7 +2162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row r="97" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
         <v>95</v>
@@ -2158,7 +2171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
         <v>96</v>
@@ -2167,7 +2180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
         <v>97</v>
@@ -2176,7 +2189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row r="100" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
         <v>72</v>
@@ -2185,7 +2198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row r="101" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
         <v>98</v>
@@ -2194,7 +2207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row r="102" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
         <v>99</v>
@@ -2203,7 +2216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row r="103" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
         <v>100</v>
@@ -2212,14 +2225,14 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row r="104" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
         <v>102</v>
@@ -2228,7 +2241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
         <v>103</v>
@@ -2237,7 +2250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
         <v>104</v>
@@ -2246,7 +2259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
         <v>105</v>
@@ -2255,7 +2268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row r="109" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
         <v>106</v>
@@ -2264,7 +2277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
         <v>107</v>
@@ -2273,7 +2286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row r="111" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
         <v>108</v>
@@ -2282,7 +2295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row r="112" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
         <v>109</v>
@@ -2291,7 +2304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row r="113" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
         <v>110</v>
@@ -2300,7 +2313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row r="114" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
         <v>111</v>
@@ -2309,7 +2322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+    <row r="115" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
         <v>112</v>
@@ -2318,7 +2331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    <row r="116" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
         <v>113</v>
@@ -2327,7 +2340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    <row r="117" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
         <v>114</v>
@@ -2336,7 +2349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+    <row r="118" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
         <v>115</v>
@@ -2345,7 +2358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    <row r="119" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
         <v>116</v>
@@ -2354,7 +2367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+    <row r="120" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
         <v>117</v>
@@ -2363,7 +2376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+    <row r="121" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
         <v>118</v>
@@ -2372,7 +2385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+    <row r="122" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
         <v>119</v>
@@ -2381,7 +2394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+    <row r="123" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
         <v>120</v>
@@ -2390,7 +2403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+    <row r="124" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
         <v>121</v>
@@ -2399,14 +2412,14 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    <row r="125" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+    <row r="126" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
         <v>123</v>
@@ -2415,7 +2428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    <row r="127" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
         <v>124</v>
@@ -2424,7 +2437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+    <row r="128" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
         <v>125</v>
@@ -2433,7 +2446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+    <row r="129" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
         <v>126</v>
@@ -2442,7 +2455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+    <row r="130" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
         <v>127</v>
@@ -2451,7 +2464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
+    <row r="131" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
         <v>128</v>
@@ -2460,7 +2473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
+    <row r="132" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
         <v>129</v>
@@ -2469,7 +2482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
+    <row r="133" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
         <v>130</v>
@@ -2478,7 +2491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
+    <row r="134" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
         <v>131</v>
@@ -2487,7 +2500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
+    <row r="135" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
         <v>132</v>
@@ -2496,14 +2509,14 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="24.75">
+    <row r="136" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
+    <row r="137" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
         <v>134</v>
@@ -2512,7 +2525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
+    <row r="138" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
         <v>135</v>
@@ -2521,7 +2534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
+    <row r="139" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
         <v>136</v>
@@ -2530,7 +2543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
+    <row r="140" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
         <v>137</v>
@@ -2539,7 +2552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
+    <row r="141" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
         <v>138</v>
@@ -2548,7 +2561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
+    <row r="142" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
         <v>139</v>
@@ -2557,7 +2570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
+    <row r="143" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
         <v>140</v>
@@ -2566,7 +2579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
+    <row r="144" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3" t="s">
         <v>30</v>
@@ -2575,7 +2588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
+    <row r="145" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
         <v>141</v>
@@ -2584,7 +2597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+    <row r="146" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3" t="s">
         <v>142</v>
@@ -2593,7 +2606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+    <row r="147" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3" t="s">
         <v>143</v>
@@ -2602,7 +2615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+    <row r="148" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3" t="s">
         <v>144</v>
@@ -2611,7 +2624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+    <row r="149" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3" t="s">
         <v>145</v>
@@ -2620,7 +2633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
+    <row r="150" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3" t="s">
         <v>146</v>
@@ -2629,7 +2642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
+    <row r="151" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
         <v>147</v>
@@ -2638,84 +2651,84 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="24.75">
+    <row r="152" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
+    <row r="153" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C153" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
+    <row r="154" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C154" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
+    <row r="155" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C155" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5">
+    <row r="156" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C156" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5">
+    <row r="157" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C157" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
+    <row r="158" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C158" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
+    <row r="159" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3" t="s">
         <v>155</v>
       </c>
       <c r="C159" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
+    <row r="160" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C160" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
+    <row r="161" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C161" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="24.75">
+    <row r="162" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
+    <row r="163" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
         <v>159</v>
@@ -2724,7 +2737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+    <row r="164" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3" t="s">
         <v>160</v>
@@ -2733,7 +2746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+    <row r="165" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3" t="s">
         <v>161</v>
@@ -2742,7 +2755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+    <row r="166" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
         <v>162</v>
@@ -2751,7 +2764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+    <row r="167" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3" t="s">
         <v>163</v>
@@ -2760,7 +2773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+    <row r="168" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
         <v>164</v>
@@ -2769,7 +2782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+    <row r="169" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3" t="s">
         <v>165</v>
@@ -2778,7 +2791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+    <row r="170" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3" t="s">
         <v>166</v>
@@ -2787,7 +2800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+    <row r="171" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
         <v>167</v>
@@ -2796,7 +2809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+    <row r="172" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3" t="s">
         <v>168</v>
@@ -2805,7 +2818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+    <row r="173" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3" t="s">
         <v>169</v>
@@ -2814,7 +2827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+    <row r="174" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
         <v>170</v>
@@ -2823,7 +2836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+    <row r="175" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
         <v>171</v>
@@ -2832,7 +2845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+    <row r="176" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3" t="s">
         <v>172</v>
@@ -2841,7 +2854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+    <row r="177" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
         <v>173</v>
@@ -2850,7 +2863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+    <row r="178" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
         <v>174</v>
@@ -2859,7 +2872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+    <row r="179" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
         <v>175</v>
@@ -2868,7 +2881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+    <row r="180" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
         <v>176</v>
@@ -2877,7 +2890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+    <row r="181" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="s">
         <v>177</v>
@@ -2886,7 +2899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+    <row r="182" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3" t="s">
         <v>178</v>
@@ -2895,7 +2908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
+    <row r="183" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
         <v>179</v>
@@ -2904,126 +2917,126 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="24.75">
+    <row r="184" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
+    <row r="185" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C185" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
+    <row r="186" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C186" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5">
+    <row r="187" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C187" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
+    <row r="188" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C188" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
+    <row r="189" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3" t="s">
         <v>185</v>
       </c>
       <c r="C189" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
+    <row r="190" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3" t="s">
         <v>186</v>
       </c>
       <c r="C190" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
+    <row r="191" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3" t="s">
         <v>187</v>
       </c>
       <c r="C191" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
+    <row r="192" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C192" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
+    <row r="193" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C193" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
+    <row r="194" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3" t="s">
         <v>190</v>
       </c>
       <c r="C194" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
+    <row r="195" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C195" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
+    <row r="196" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3" t="s">
         <v>192</v>
       </c>
       <c r="C196" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+    <row r="197" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3" t="s">
         <v>193</v>
       </c>
       <c r="C197" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
+    <row r="198" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C198" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
+    <row r="199" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3" t="s">
         <v>195</v>
       </c>
       <c r="C199" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
+    <row r="200" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
+    <row r="201" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3" t="s">
         <v>197</v>
@@ -3032,7 +3045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
+    <row r="202" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3" t="s">
         <v>198</v>
@@ -3041,7 +3054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
+    <row r="203" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3" t="s">
         <v>199</v>
@@ -3050,7 +3063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
+    <row r="204" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3" t="s">
         <v>200</v>
@@ -3059,7 +3072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
+    <row r="205" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3" t="s">
         <v>201</v>
@@ -3068,7 +3081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
+    <row r="206" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3" t="s">
         <v>202</v>
@@ -3077,7 +3090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
+    <row r="207" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3" t="s">
         <v>203</v>
@@ -3086,7 +3099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
+    <row r="208" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3" t="s">
         <v>204</v>
@@ -3095,7 +3108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
+    <row r="209" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3" t="s">
         <v>205</v>
@@ -3104,7 +3117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
+    <row r="210" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3" t="s">
         <v>206</v>
@@ -3113,7 +3126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
+    <row r="211" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3" t="s">
         <v>207</v>
@@ -3122,7 +3135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
+    <row r="212" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="4" t="s">
         <v>208</v>
@@ -3131,460 +3144,467 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
+    <row r="213" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="5"/>
       <c r="B213" s="3" t="s">
         <v>209</v>
       </c>
       <c r="C213" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
+    <row r="214" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="5"/>
       <c r="B214" s="3" t="s">
         <v>210</v>
       </c>
       <c r="C214" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
+    <row r="215" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="5"/>
       <c r="B215" s="3" t="s">
         <v>211</v>
       </c>
       <c r="C215" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
+    <row r="216" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="5"/>
-      <c r="B216" s="7" t="s">
-        <v>212</v>
+      <c r="B216" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="C216" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
+    <row r="217" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="5"/>
       <c r="B217" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C217" s="6"/>
+    </row>
+    <row r="218" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="5"/>
+      <c r="B218" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C217" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
-      <c r="A218" s="2" t="s">
+      <c r="C218" s="6"/>
+    </row>
+    <row r="219" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B218" s="8"/>
-      <c r="C218" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
-      <c r="A219" s="3"/>
-      <c r="B219" s="3" t="s">
-        <v>215</v>
-      </c>
+      <c r="B219" s="8"/>
       <c r="C219" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
+    <row r="220" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C220" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
+    <row r="221" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C221" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
+    <row r="222" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C222" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
+    <row r="223" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="3"/>
+      <c r="B224" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C223" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
-      <c r="A224" s="2" t="s">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
-      <c r="A225" s="3"/>
-      <c r="B225" s="3" t="s">
-        <v>221</v>
-      </c>
+      <c r="B225" s="3"/>
       <c r="C225" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
+    <row r="226" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C226" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
+    <row r="227" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C227" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
+    <row r="228" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C228" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
+    <row r="229" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C229" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
+    <row r="230" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C230" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
+    <row r="231" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="3"/>
+      <c r="B232" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C231" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
-      <c r="A232" s="2" t="s">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
-      <c r="A233" s="3"/>
-      <c r="B233" s="3" t="s">
-        <v>229</v>
-      </c>
+      <c r="B233" s="3"/>
       <c r="C233" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
+    <row r="234" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C234" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
+    <row r="235" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C235" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
+    <row r="236" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C236" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
+    <row r="237" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C237" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
+    <row r="238" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C238" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
+    <row r="239" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="3"/>
+      <c r="B240" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C239" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
-      <c r="A240" s="2" t="s">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B240" s="3"/>
-      <c r="C240" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
-      <c r="A241" s="3"/>
-      <c r="B241" s="3" t="s">
-        <v>237</v>
-      </c>
+      <c r="B241" s="3"/>
       <c r="C241" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
+    <row r="242" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C242" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
+    <row r="243" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C243" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
+    <row r="244" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C244" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
+    <row r="245" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="3"/>
+      <c r="B246" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C245" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
-      <c r="A246" s="2" t="s">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B246" s="3"/>
-      <c r="C246" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
-      <c r="A247" s="3"/>
-      <c r="B247" s="3" t="s">
-        <v>243</v>
-      </c>
+      <c r="B247" s="3"/>
       <c r="C247" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
+    <row r="248" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C248" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
+    <row r="249" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C249" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
+    <row r="250" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C250" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
+    <row r="251" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C251" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
+    <row r="252" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C252" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
+    <row r="253" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C253" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
+    <row r="254" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C254" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
+    <row r="255" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C255" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
+    <row r="256" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C256" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
+    <row r="257" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3" t="s">
-        <v>156</v>
+        <v>252</v>
       </c>
       <c r="C257" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
+    <row r="258" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C258" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
+    <row r="259" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="3" t="s">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c r="C259" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
+    <row r="260" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C260" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
+    <row r="261" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C261" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
+    <row r="262" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C262" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
+    <row r="263" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C263" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
+    <row r="264" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C264" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
+    <row r="265" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C265" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
+    <row r="266" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C266" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
+    <row r="267" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C267" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
+    <row r="268" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C268" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
+    <row r="269" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C269" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
+    <row r="270" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C270" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
+    <row r="271" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C271" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
+    <row r="272" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C272" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
+    <row r="273" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C273" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
+    <row r="274" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
       <c r="B274" s="3" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="C274" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
+    <row r="275" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
       <c r="B275" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C275" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
+    <row r="276" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" s="3" t="s">
-        <v>268</v>
+        <v>174</v>
       </c>
       <c r="C276" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
+    <row r="277" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
       <c r="B277" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3"/>
+      <c r="B278" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C277" s="3"/>
+      <c r="C278" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f5277f211c7413a/Desktop/DOCUMENTS/Node.js-Interview-CheckList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_17705ABC0A1BE16A4595A18BEE4A8FCE9D4FE8BE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23848A7E-482F-4CDE-AB5A-59B9349EB0ED}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_17705ABC0A8B60529955B48BEE4A8FCE9D4FE8BE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{791A084C-202A-4D8F-B6EB-C35C3EC3367A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="270">
   <si>
     <t>Category</t>
   </si>
@@ -830,9 +830,6 @@
   </si>
   <si>
     <t>os.totalmem()</t>
-  </si>
-  <si>
-    <t>Horizontal vs Vertical scalling</t>
   </si>
 </sst>
 </file>
@@ -880,7 +877,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -930,19 +927,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -959,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -976,13 +960,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1293,17 +1274,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C278"/>
+  <dimension ref="A1:C277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="D217" sqref="D217"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="C212" sqref="C212:C217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3149,462 +3130,465 @@
       <c r="B213" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C213" s="6"/>
+      <c r="C213" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="214" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="5"/>
       <c r="B214" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C214" s="6"/>
+      <c r="C214" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="215" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="5"/>
       <c r="B215" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C215" s="6"/>
+      <c r="C215" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="216" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="5"/>
-      <c r="B216" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C216" s="6"/>
+      <c r="B216" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="217" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="5"/>
-      <c r="B217" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C217" s="6"/>
-    </row>
-    <row r="218" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="5"/>
-      <c r="B218" s="7" t="s">
+      <c r="B217" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C218" s="6"/>
-    </row>
-    <row r="219" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="2" t="s">
+      <c r="C217" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B219" s="8"/>
+      <c r="B218" s="7"/>
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3"/>
+      <c r="B219" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="C219" s="3"/>
     </row>
     <row r="220" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C220" s="3"/>
     </row>
     <row r="221" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C221" s="3"/>
     </row>
     <row r="222" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C222" s="3"/>
     </row>
     <row r="223" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C223" s="3"/>
     </row>
-    <row r="224" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="3"/>
-      <c r="B224" s="3" t="s">
-        <v>219</v>
-      </c>
+    <row r="224" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B224" s="3"/>
       <c r="C224" s="3"/>
     </row>
-    <row r="225" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B225" s="3"/>
+    <row r="225" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3"/>
+      <c r="B225" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="C225" s="3"/>
     </row>
     <row r="226" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C226" s="3"/>
     </row>
     <row r="227" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C227" s="3"/>
     </row>
     <row r="228" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C228" s="3"/>
     </row>
     <row r="229" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C229" s="3"/>
     </row>
     <row r="230" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C230" s="3"/>
     </row>
     <row r="231" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C231" s="3"/>
     </row>
-    <row r="232" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="3"/>
-      <c r="B232" s="3" t="s">
-        <v>227</v>
-      </c>
+    <row r="232" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B232" s="3"/>
       <c r="C232" s="3"/>
     </row>
-    <row r="233" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B233" s="3"/>
+    <row r="233" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3"/>
+      <c r="B233" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="C233" s="3"/>
     </row>
     <row r="234" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C234" s="3"/>
     </row>
     <row r="235" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C235" s="3"/>
     </row>
     <row r="236" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C236" s="3"/>
     </row>
     <row r="237" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C237" s="3"/>
     </row>
     <row r="238" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C238" s="3"/>
     </row>
     <row r="239" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C239" s="3"/>
     </row>
-    <row r="240" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="3"/>
-      <c r="B240" s="3" t="s">
-        <v>235</v>
-      </c>
+    <row r="240" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B240" s="3"/>
       <c r="C240" s="3"/>
     </row>
-    <row r="241" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B241" s="3"/>
+    <row r="241" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="3"/>
+      <c r="B241" s="3" t="s">
+        <v>237</v>
+      </c>
       <c r="C241" s="3"/>
     </row>
     <row r="242" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C242" s="3"/>
     </row>
     <row r="243" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C243" s="3"/>
     </row>
     <row r="244" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C244" s="3"/>
     </row>
     <row r="245" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C245" s="3"/>
     </row>
-    <row r="246" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="3"/>
-      <c r="B246" s="3" t="s">
-        <v>241</v>
-      </c>
+    <row r="246" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B246" s="3"/>
       <c r="C246" s="3"/>
     </row>
-    <row r="247" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B247" s="3"/>
+    <row r="247" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3"/>
+      <c r="B247" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="C247" s="3"/>
     </row>
     <row r="248" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C248" s="3"/>
     </row>
     <row r="249" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C249" s="3"/>
     </row>
     <row r="250" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C250" s="3"/>
     </row>
     <row r="251" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C251" s="3"/>
     </row>
     <row r="252" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C252" s="3"/>
     </row>
     <row r="253" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C253" s="3"/>
     </row>
     <row r="254" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C254" s="3"/>
     </row>
     <row r="255" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C255" s="3"/>
     </row>
     <row r="256" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C256" s="3"/>
     </row>
     <row r="257" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3" t="s">
-        <v>252</v>
+        <v>156</v>
       </c>
       <c r="C257" s="3"/>
     </row>
     <row r="258" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C258" s="3"/>
     </row>
     <row r="259" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="3" t="s">
-        <v>157</v>
+        <v>253</v>
       </c>
       <c r="C259" s="3"/>
     </row>
     <row r="260" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C260" s="3"/>
     </row>
     <row r="261" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C261" s="3"/>
     </row>
     <row r="262" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C262" s="3"/>
     </row>
     <row r="263" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C263" s="3"/>
     </row>
     <row r="264" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C264" s="3"/>
     </row>
     <row r="265" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C265" s="3"/>
     </row>
     <row r="266" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C266" s="3"/>
     </row>
     <row r="267" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C267" s="3"/>
     </row>
     <row r="268" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C268" s="3"/>
     </row>
     <row r="269" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C269" s="3"/>
     </row>
     <row r="270" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C270" s="3"/>
     </row>
     <row r="271" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C271" s="3"/>
     </row>
     <row r="272" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C272" s="3"/>
     </row>
     <row r="273" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C273" s="3"/>
     </row>
     <row r="274" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
       <c r="B274" s="3" t="s">
-        <v>267</v>
+        <v>175</v>
       </c>
       <c r="C274" s="3"/>
     </row>
     <row r="275" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
       <c r="B275" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C275" s="3"/>
     </row>
     <row r="276" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" s="3" t="s">
-        <v>174</v>
+        <v>268</v>
       </c>
       <c r="C276" s="3"/>
     </row>
     <row r="277" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
       <c r="B277" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C277" s="3"/>
-    </row>
-    <row r="278" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="3"/>
-      <c r="B278" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C278" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -1277,7 +1277,7 @@
   <dimension ref="A1:C277"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="C212" sqref="C212:C217"/>
+      <selection activeCell="E212" sqref="E212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Node.js Interview Full ChechList.xlsx
+++ b/Node.js Interview Full ChechList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f5277f211c7413a/Desktop/DOCUMENTS/Node.js-Interview-CheckList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_17705ABC0A8B60529955B48BEE4A8FCE9D4FE8BE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{791A084C-202A-4D8F-B6EB-C35C3EC3367A}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_17705ABC0A8B60529955B48BEE4A8FCE9D4FE8BE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7E7990E-CE4B-45C1-9723-85F9E1625FED}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="271">
   <si>
     <t>Category</t>
   </si>
@@ -830,6 +830,9 @@
   </si>
   <si>
     <t>os.totalmem()</t>
+  </si>
+  <si>
+    <t>GraphQL</t>
   </si>
 </sst>
 </file>
@@ -1274,10 +1277,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C277"/>
+  <dimension ref="A1:C278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="E212" sqref="E212"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2999,37 +3002,35 @@
     <row r="198" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="C198" s="3"/>
     </row>
     <row r="199" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3"/>
+      <c r="B200" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C199" s="3"/>
-    </row>
-    <row r="200" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="2" t="s">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
-    </row>
-    <row r="201" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B201" s="3"/>
+      <c r="C201" s="3"/>
     </row>
     <row r="202" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>5</v>
@@ -3038,7 +3039,7 @@
     <row r="203" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>5</v>
@@ -3047,7 +3048,7 @@
     <row r="204" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>5</v>
@@ -3056,7 +3057,7 @@
     <row r="205" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>5</v>
@@ -3065,7 +3066,7 @@
     <row r="206" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>5</v>
@@ -3074,7 +3075,7 @@
     <row r="207" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>5</v>
@@ -3083,7 +3084,7 @@
     <row r="208" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>5</v>
@@ -3092,7 +3093,7 @@
     <row r="209" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>5</v>
@@ -3101,7 +3102,7 @@
     <row r="210" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>5</v>
@@ -3110,7 +3111,7 @@
     <row r="211" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>5</v>
@@ -3118,17 +3119,17 @@
     </row>
     <row r="212" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
-      <c r="B212" s="4" t="s">
+      <c r="B212" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3"/>
+      <c r="B213" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="5"/>
-      <c r="B213" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>5</v>
@@ -3137,7 +3138,7 @@
     <row r="214" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="5"/>
       <c r="B214" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>5</v>
@@ -3146,7 +3147,7 @@
     <row r="215" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="5"/>
       <c r="B215" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>5</v>
@@ -3154,8 +3155,8 @@
     </row>
     <row r="216" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="5"/>
-      <c r="B216" s="6" t="s">
-        <v>212</v>
+      <c r="B216" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>5</v>
@@ -3164,431 +3165,440 @@
     <row r="217" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="5"/>
       <c r="B217" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="5"/>
+      <c r="B218" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C217" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="2" t="s">
+      <c r="C218" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B218" s="7"/>
-      <c r="C218" s="3"/>
-    </row>
-    <row r="219" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="3"/>
-      <c r="B219" s="3" t="s">
-        <v>215</v>
-      </c>
+      <c r="B219" s="7"/>
       <c r="C219" s="3"/>
     </row>
     <row r="220" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C220" s="3"/>
     </row>
     <row r="221" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C221" s="3"/>
     </row>
     <row r="222" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C222" s="3"/>
     </row>
     <row r="223" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="3"/>
+      <c r="B224" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C223" s="3"/>
-    </row>
-    <row r="224" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="2" t="s">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
-    </row>
-    <row r="225" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="3"/>
-      <c r="B225" s="3" t="s">
-        <v>221</v>
-      </c>
+      <c r="B225" s="3"/>
       <c r="C225" s="3"/>
     </row>
     <row r="226" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C226" s="3"/>
     </row>
     <row r="227" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C227" s="3"/>
     </row>
     <row r="228" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C228" s="3"/>
     </row>
     <row r="229" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C229" s="3"/>
     </row>
     <row r="230" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C230" s="3"/>
     </row>
     <row r="231" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="3"/>
+      <c r="B232" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C231" s="3"/>
-    </row>
-    <row r="232" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="2" t="s">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
-    </row>
-    <row r="233" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="3"/>
-      <c r="B233" s="3" t="s">
-        <v>229</v>
-      </c>
+      <c r="B233" s="3"/>
       <c r="C233" s="3"/>
     </row>
     <row r="234" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C234" s="3"/>
     </row>
     <row r="235" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C235" s="3"/>
     </row>
     <row r="236" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C236" s="3"/>
     </row>
     <row r="237" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C237" s="3"/>
     </row>
     <row r="238" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C238" s="3"/>
     </row>
     <row r="239" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="3"/>
+      <c r="B240" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C239" s="3"/>
-    </row>
-    <row r="240" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="2" t="s">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B240" s="3"/>
-      <c r="C240" s="3"/>
-    </row>
-    <row r="241" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="3"/>
-      <c r="B241" s="3" t="s">
-        <v>237</v>
-      </c>
+      <c r="B241" s="3"/>
       <c r="C241" s="3"/>
     </row>
     <row r="242" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C242" s="3"/>
     </row>
     <row r="243" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C243" s="3"/>
     </row>
     <row r="244" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C244" s="3"/>
     </row>
     <row r="245" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="3"/>
+      <c r="B246" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C245" s="3"/>
-    </row>
-    <row r="246" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="2" t="s">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B246" s="3"/>
-      <c r="C246" s="3"/>
-    </row>
-    <row r="247" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="3"/>
-      <c r="B247" s="3" t="s">
-        <v>243</v>
-      </c>
+      <c r="B247" s="3"/>
       <c r="C247" s="3"/>
     </row>
     <row r="248" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C248" s="3"/>
     </row>
     <row r="249" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C249" s="3"/>
     </row>
     <row r="250" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C250" s="3"/>
     </row>
     <row r="251" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C251" s="3"/>
     </row>
     <row r="252" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C252" s="3"/>
     </row>
     <row r="253" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C253" s="3"/>
     </row>
     <row r="254" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C254" s="3"/>
     </row>
     <row r="255" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C255" s="3"/>
     </row>
     <row r="256" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C256" s="3"/>
     </row>
     <row r="257" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3" t="s">
-        <v>156</v>
+        <v>252</v>
       </c>
       <c r="C257" s="3"/>
     </row>
     <row r="258" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C258" s="3"/>
     </row>
     <row r="259" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="3" t="s">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c r="C259" s="3"/>
     </row>
     <row r="260" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C260" s="3"/>
     </row>
     <row r="261" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C261" s="3"/>
     </row>
     <row r="262" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C262" s="3"/>
     </row>
     <row r="263" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C263" s="3"/>
     </row>
     <row r="264" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C264" s="3"/>
     </row>
     <row r="265" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C265" s="3"/>
     </row>
     <row r="266" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C266" s="3"/>
     </row>
     <row r="267" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C267" s="3"/>
     </row>
     <row r="268" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C268" s="3"/>
     </row>
     <row r="269" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C269" s="3"/>
     </row>
     <row r="270" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C270" s="3"/>
     </row>
     <row r="271" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C271" s="3"/>
     </row>
     <row r="272" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C272" s="3"/>
     </row>
     <row r="273" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C273" s="3"/>
     </row>
     <row r="274" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
       <c r="B274" s="3" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="C274" s="3"/>
     </row>
     <row r="275" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
       <c r="B275" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C275" s="3"/>
     </row>
     <row r="276" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" s="3" t="s">
-        <v>268</v>
+        <v>174</v>
       </c>
       <c r="C276" s="3"/>
     </row>
     <row r="277" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
       <c r="B277" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3"/>
+      <c r="B278" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C277" s="3"/>
+      <c r="C278" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
